--- a/NURSERY/Result_Final.xlsx
+++ b/NURSERY/Result_Final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="104">
   <si>
     <t>Student Name</t>
   </si>
@@ -326,9 +326,6 @@
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -951,22 +948,22 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>8.5</v>
+        <v>21.25</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K2">
         <v>25</v>
@@ -1005,22 +1002,22 @@
         <v>7</v>
       </c>
       <c r="W2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y2">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AA2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB2">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC2">
         <v>25</v>
@@ -1059,94 +1056,94 @@
         <v>7</v>
       </c>
       <c r="AO2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AP2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR2">
-        <v>96.66666666666667</v>
+        <v>48.33333333333334</v>
       </c>
       <c r="AS2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AV2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA2">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="BB2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD2">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="BE2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG2">
-        <v>118.5</v>
+        <v>96.25</v>
       </c>
       <c r="BH2">
-        <v>113.67</v>
+        <v>90.83</v>
       </c>
       <c r="BI2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BJ2">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="BK2">
-        <v>105.5</v>
+        <v>71.5</v>
       </c>
       <c r="BL2">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="BM2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BN2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BS2" t="s">
         <v>103</v>
@@ -1167,16 +1164,16 @@
         <v>103</v>
       </c>
       <c r="BY2">
-        <v>729.6700000000001</v>
+        <v>519.5799999999999</v>
       </c>
       <c r="BZ2" t="s">
         <v>103</v>
       </c>
       <c r="CA2">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB2">
-        <v>86.8654761904762</v>
+        <v>86.59666666666665</v>
       </c>
       <c r="CC2">
         <v>10</v>
@@ -1196,22 +1193,22 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K3">
         <v>18</v>
@@ -1250,22 +1247,22 @@
         <v>7</v>
       </c>
       <c r="W3">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="X3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y3">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z3">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="AA3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB3">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC3">
         <v>20</v>
@@ -1304,94 +1301,94 @@
         <v>7</v>
       </c>
       <c r="AO3">
-        <v>33.33333333333334</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="AP3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR3">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AS3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU3">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="AV3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX3">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AY3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA3">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="BB3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="BE3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG3">
-        <v>43.33</v>
+        <v>41.67</v>
       </c>
       <c r="BH3">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="BI3">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="BJ3">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="BK3">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="BL3">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="BM3">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BN3">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BS3" t="s">
         <v>103</v>
@@ -1412,16 +1409,16 @@
         <v>103</v>
       </c>
       <c r="BY3">
-        <v>524.3299999999999</v>
+        <v>366.67</v>
       </c>
       <c r="BZ3" t="s">
         <v>103</v>
       </c>
       <c r="CA3">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB3">
-        <v>62.42023809523809</v>
+        <v>61.11166666666666</v>
       </c>
       <c r="CC3">
         <v>19</v>
@@ -1441,22 +1438,22 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K4">
         <v>22</v>
@@ -1495,22 +1492,22 @@
         <v>7</v>
       </c>
       <c r="W4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="X4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y4">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AA4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB4">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC4">
         <v>25</v>
@@ -1549,94 +1546,94 @@
         <v>7</v>
       </c>
       <c r="AO4">
-        <v>93.33333333333333</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="AP4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR4">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AS4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AV4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX4">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="AY4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA4">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="BB4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD4">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="BE4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG4">
-        <v>104.33</v>
+        <v>74.17</v>
       </c>
       <c r="BH4">
+        <v>82.5</v>
+      </c>
+      <c r="BI4">
         <v>97</v>
       </c>
-      <c r="BI4">
-        <v>147</v>
-      </c>
       <c r="BJ4">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="BK4">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="BL4">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="BM4">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BN4">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BS4" t="s">
         <v>103</v>
@@ -1657,16 +1654,16 @@
         <v>103</v>
       </c>
       <c r="BY4">
-        <v>718.3299999999999</v>
+        <v>502.67</v>
       </c>
       <c r="BZ4" t="s">
         <v>103</v>
       </c>
       <c r="CA4">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB4">
-        <v>85.51547619047618</v>
+        <v>83.77833333333334</v>
       </c>
       <c r="CC4">
         <v>12</v>
@@ -1686,22 +1683,22 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K5">
         <v>25</v>
@@ -1740,22 +1737,22 @@
         <v>7</v>
       </c>
       <c r="W5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z5">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="AA5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB5">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC5">
         <v>25</v>
@@ -1794,94 +1791,94 @@
         <v>7</v>
       </c>
       <c r="AO5">
-        <v>96.66666666666667</v>
+        <v>48.33333333333334</v>
       </c>
       <c r="AP5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AS5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AV5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX5">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AY5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA5">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="BB5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BE5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG5">
-        <v>116.67</v>
+        <v>98.33</v>
       </c>
       <c r="BH5">
-        <v>119</v>
+        <v>97.5</v>
       </c>
       <c r="BI5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BJ5">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="BK5">
-        <v>142.5</v>
+        <v>94.5</v>
       </c>
       <c r="BL5">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="BM5">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BN5">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR5">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BS5" t="s">
         <v>103</v>
@@ -1902,19 +1899,19 @@
         <v>103</v>
       </c>
       <c r="BY5">
-        <v>788.1700000000001</v>
+        <v>555.3299999999999</v>
       </c>
       <c r="BZ5" t="s">
         <v>103</v>
       </c>
       <c r="CA5">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB5">
-        <v>93.82976190476191</v>
+        <v>92.55499999999999</v>
       </c>
       <c r="CC5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:81">
@@ -1931,22 +1928,22 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K6">
         <v>25</v>
@@ -1985,22 +1982,22 @@
         <v>7</v>
       </c>
       <c r="W6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="X6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y6">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z6">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="AA6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB6">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC6">
         <v>25</v>
@@ -2039,94 +2036,94 @@
         <v>7</v>
       </c>
       <c r="AO6">
-        <v>93.33333333333333</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="AP6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR6">
-        <v>93.33333333333333</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="AS6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AV6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX6">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AY6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA6">
-        <v>69</v>
+        <v>34.5</v>
       </c>
       <c r="BB6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD6">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="BE6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG6">
-        <v>108.33</v>
+        <v>84.17</v>
       </c>
       <c r="BH6">
-        <v>110.33</v>
+        <v>89.17</v>
       </c>
       <c r="BI6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BJ6">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="BK6">
-        <v>101</v>
+        <v>66.5</v>
       </c>
       <c r="BL6">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="BM6">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BN6">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR6">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BS6" t="s">
         <v>103</v>
@@ -2147,16 +2144,16 @@
         <v>103</v>
       </c>
       <c r="BY6">
-        <v>685.66</v>
+        <v>486.84</v>
       </c>
       <c r="BZ6" t="s">
         <v>103</v>
       </c>
       <c r="CA6">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB6">
-        <v>81.62619047619047</v>
+        <v>81.14</v>
       </c>
       <c r="CC6">
         <v>16</v>
@@ -2176,22 +2173,22 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K7">
         <v>23</v>
@@ -2230,22 +2227,22 @@
         <v>7</v>
       </c>
       <c r="W7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y7">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AA7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB7">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC7">
         <v>25</v>
@@ -2287,61 +2284,61 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR7">
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU7">
         <v>0</v>
       </c>
       <c r="AV7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX7">
         <v>0</v>
       </c>
       <c r="AY7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA7">
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD7">
         <v>0</v>
       </c>
       <c r="BE7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="BH7">
-        <v>19</v>
+        <v>47.5</v>
       </c>
       <c r="BI7">
         <v>48</v>
@@ -2356,52 +2353,52 @@
         <v>49</v>
       </c>
       <c r="BM7">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BN7">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO7">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP7">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ7">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR7">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BS7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BT7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BU7" t="s">
         <v>103</v>
       </c>
       <c r="BV7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BW7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BX7" t="s">
         <v>103</v>
       </c>
       <c r="BY7">
-        <v>223</v>
+        <v>281.5</v>
       </c>
       <c r="BZ7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CA7">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB7">
-        <v>26.54761904761905</v>
+        <v>46.91666666666666</v>
       </c>
       <c r="CC7">
         <v>20</v>
@@ -2421,22 +2418,22 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>9.5</v>
+        <v>23.75</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K8">
         <v>23</v>
@@ -2475,22 +2472,22 @@
         <v>7</v>
       </c>
       <c r="W8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y8">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AA8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB8">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC8">
         <v>25</v>
@@ -2529,94 +2526,94 @@
         <v>7</v>
       </c>
       <c r="AO8">
-        <v>93.33333333333333</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="AP8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR8">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AS8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AV8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX8">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="AY8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA8">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="BB8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BE8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG8">
-        <v>112.83</v>
+        <v>95.42</v>
       </c>
       <c r="BH8">
-        <v>105</v>
+        <v>82.5</v>
       </c>
       <c r="BI8">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="BJ8">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="BK8">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="BL8">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="BM8">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BN8">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO8">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP8">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ8">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR8">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BS8" t="s">
         <v>103</v>
@@ -2637,19 +2634,19 @@
         <v>103</v>
       </c>
       <c r="BY8">
-        <v>752.8299999999999</v>
+        <v>530.9200000000001</v>
       </c>
       <c r="BZ8" t="s">
         <v>103</v>
       </c>
       <c r="CA8">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB8">
-        <v>89.62261904761904</v>
+        <v>88.48666666666668</v>
       </c>
       <c r="CC8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:81">
@@ -2666,22 +2663,22 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K9">
         <v>23</v>
@@ -2720,22 +2717,22 @@
         <v>7</v>
       </c>
       <c r="W9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AA9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB9">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC9">
         <v>25</v>
@@ -2774,94 +2771,94 @@
         <v>7</v>
       </c>
       <c r="AO9">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AP9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR9">
-        <v>86.66666666666667</v>
+        <v>43.33333333333334</v>
       </c>
       <c r="AS9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AV9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AY9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA9">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="BB9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD9">
-        <v>91</v>
+        <v>45.5</v>
       </c>
       <c r="BE9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG9">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="BH9">
-        <v>101.67</v>
+        <v>80.83</v>
       </c>
       <c r="BI9">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="BJ9">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="BK9">
-        <v>122.5</v>
+        <v>78.5</v>
       </c>
       <c r="BL9">
-        <v>140</v>
+        <v>94.5</v>
       </c>
       <c r="BM9">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BN9">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO9">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP9">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ9">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR9">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BS9" t="s">
         <v>103</v>
@@ -2882,19 +2879,19 @@
         <v>103</v>
       </c>
       <c r="BY9">
-        <v>740.1700000000001</v>
+        <v>524.8299999999999</v>
       </c>
       <c r="BZ9" t="s">
         <v>103</v>
       </c>
       <c r="CA9">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB9">
-        <v>88.11547619047619</v>
+        <v>87.47166666666666</v>
       </c>
       <c r="CC9">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:81">
@@ -2911,22 +2908,22 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K10">
         <v>20</v>
@@ -2965,22 +2962,22 @@
         <v>7</v>
       </c>
       <c r="W10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y10">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AA10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB10">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC10">
         <v>20</v>
@@ -3019,94 +3016,94 @@
         <v>7</v>
       </c>
       <c r="AO10">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AP10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ10">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR10">
-        <v>86.66666666666667</v>
+        <v>43.33333333333334</v>
       </c>
       <c r="AS10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT10">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AV10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW10">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX10">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="AY10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ10">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA10">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="BB10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC10">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD10">
-        <v>97</v>
+        <v>48.5</v>
       </c>
       <c r="BE10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF10">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG10">
+        <v>82.5</v>
+      </c>
+      <c r="BH10">
+        <v>85.83</v>
+      </c>
+      <c r="BI10">
+        <v>90</v>
+      </c>
+      <c r="BJ10">
+        <v>86</v>
+      </c>
+      <c r="BK10">
         <v>89</v>
       </c>
-      <c r="BH10">
-        <v>103.67</v>
-      </c>
-      <c r="BI10">
-        <v>140</v>
-      </c>
-      <c r="BJ10">
-        <v>128</v>
-      </c>
-      <c r="BK10">
-        <v>135</v>
-      </c>
       <c r="BL10">
-        <v>145</v>
+        <v>96.5</v>
       </c>
       <c r="BM10">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BN10">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO10">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP10">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ10">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR10">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BS10" t="s">
         <v>103</v>
@@ -3127,19 +3124,19 @@
         <v>103</v>
       </c>
       <c r="BY10">
-        <v>740.6700000000001</v>
+        <v>529.8299999999999</v>
       </c>
       <c r="BZ10" t="s">
         <v>103</v>
       </c>
       <c r="CA10">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB10">
-        <v>88.175</v>
+        <v>88.30499999999999</v>
       </c>
       <c r="CC10">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:81">
@@ -3156,22 +3153,22 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K11">
         <v>18</v>
@@ -3210,22 +3207,22 @@
         <v>7</v>
       </c>
       <c r="W11">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="X11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y11">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z11">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="AA11">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB11">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC11">
         <v>22</v>
@@ -3264,94 +3261,94 @@
         <v>7</v>
       </c>
       <c r="AO11">
-        <v>93.33333333333333</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="AP11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR11">
-        <v>66.66666666666667</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="AS11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AV11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX11">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="AY11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA11">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="BB11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD11">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="BE11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG11">
-        <v>108.33</v>
+        <v>84.17</v>
       </c>
       <c r="BH11">
-        <v>79.67</v>
+        <v>65.83</v>
       </c>
       <c r="BI11">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="BJ11">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="BK11">
-        <v>127.5</v>
+        <v>83.5</v>
       </c>
       <c r="BL11">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="BM11">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BN11">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO11">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP11">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ11">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR11">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BS11" t="s">
         <v>103</v>
@@ -3372,19 +3369,19 @@
         <v>103</v>
       </c>
       <c r="BY11">
-        <v>720.5</v>
+        <v>497.5</v>
       </c>
       <c r="BZ11" t="s">
         <v>103</v>
       </c>
       <c r="CA11">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB11">
-        <v>85.77380952380952</v>
+        <v>82.91666666666667</v>
       </c>
       <c r="CC11">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:81">
@@ -3401,22 +3398,22 @@
         <v>11</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K12">
         <v>21</v>
@@ -3455,22 +3452,22 @@
         <v>7</v>
       </c>
       <c r="W12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y12">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AA12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB12">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC12">
         <v>25</v>
@@ -3509,94 +3506,94 @@
         <v>7</v>
       </c>
       <c r="AO12">
-        <v>96.66666666666667</v>
+        <v>48.33333333333334</v>
       </c>
       <c r="AP12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR12">
-        <v>86.66666666666667</v>
+        <v>43.33333333333334</v>
       </c>
       <c r="AS12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AV12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX12">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="AY12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA12">
-        <v>71</v>
+        <v>35.5</v>
       </c>
       <c r="BB12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD12">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="BE12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG12">
-        <v>116.67</v>
+        <v>98.33</v>
       </c>
       <c r="BH12">
-        <v>106.67</v>
+        <v>93.33</v>
       </c>
       <c r="BI12">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="BJ12">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="BK12">
-        <v>90.5</v>
+        <v>55</v>
       </c>
       <c r="BL12">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="BM12">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BN12">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO12">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP12">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ12">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR12">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BS12" t="s">
         <v>103</v>
@@ -3617,19 +3614,19 @@
         <v>103</v>
       </c>
       <c r="BY12">
-        <v>706.84</v>
+        <v>504.66</v>
       </c>
       <c r="BZ12" t="s">
         <v>103</v>
       </c>
       <c r="CA12">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB12">
-        <v>84.14761904761905</v>
+        <v>84.11</v>
       </c>
       <c r="CC12">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:81">
@@ -3646,22 +3643,22 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K13">
         <v>24</v>
@@ -3700,22 +3697,22 @@
         <v>7</v>
       </c>
       <c r="W13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y13">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AA13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB13">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC13">
         <v>25</v>
@@ -3754,94 +3751,94 @@
         <v>7</v>
       </c>
       <c r="AO13">
-        <v>93.33333333333333</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="AP13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ13">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR13">
-        <v>96.66666666666667</v>
+        <v>48.33333333333334</v>
       </c>
       <c r="AS13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT13">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AV13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW13">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX13">
+        <v>41</v>
+      </c>
+      <c r="AY13">
+        <v>50</v>
+      </c>
+      <c r="AZ13">
+        <v>15</v>
+      </c>
+      <c r="BA13">
+        <v>48</v>
+      </c>
+      <c r="BB13">
+        <v>50</v>
+      </c>
+      <c r="BC13">
+        <v>15</v>
+      </c>
+      <c r="BD13">
+        <v>47.5</v>
+      </c>
+      <c r="BE13">
+        <v>50</v>
+      </c>
+      <c r="BF13">
+        <v>15</v>
+      </c>
+      <c r="BG13">
+        <v>96.67</v>
+      </c>
+      <c r="BH13">
+        <v>90.83</v>
+      </c>
+      <c r="BI13">
+        <v>99</v>
+      </c>
+      <c r="BJ13">
         <v>82</v>
       </c>
-      <c r="AY13">
-        <v>100</v>
-      </c>
-      <c r="AZ13">
-        <v>30</v>
-      </c>
-      <c r="BA13">
-        <v>96</v>
-      </c>
-      <c r="BB13">
-        <v>100</v>
-      </c>
-      <c r="BC13">
-        <v>30</v>
-      </c>
-      <c r="BD13">
-        <v>95</v>
-      </c>
-      <c r="BE13">
-        <v>100</v>
-      </c>
-      <c r="BF13">
-        <v>30</v>
-      </c>
-      <c r="BG13">
-        <v>113.33</v>
-      </c>
-      <c r="BH13">
-        <v>113.67</v>
-      </c>
-      <c r="BI13">
-        <v>149</v>
-      </c>
-      <c r="BJ13">
-        <v>123</v>
-      </c>
       <c r="BK13">
-        <v>137.5</v>
+        <v>89.5</v>
       </c>
       <c r="BL13">
-        <v>143</v>
+        <v>95.5</v>
       </c>
       <c r="BM13">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BN13">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO13">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP13">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ13">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR13">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BS13" t="s">
         <v>103</v>
@@ -3862,16 +3859,16 @@
         <v>103</v>
       </c>
       <c r="BY13">
-        <v>779.5</v>
+        <v>553.5</v>
       </c>
       <c r="BZ13" t="s">
         <v>103</v>
       </c>
       <c r="CA13">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB13">
-        <v>92.79761904761905</v>
+        <v>92.25</v>
       </c>
       <c r="CC13">
         <v>4</v>
@@ -3891,22 +3888,22 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K14">
         <v>22</v>
@@ -3945,22 +3942,22 @@
         <v>7</v>
       </c>
       <c r="W14">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="X14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y14">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AA14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB14">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC14">
         <v>25</v>
@@ -3999,94 +3996,94 @@
         <v>7</v>
       </c>
       <c r="AO14">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AP14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ14">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR14">
-        <v>93.33333333333333</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="AS14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT14">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU14">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AV14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW14">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX14">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AY14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ14">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA14">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BB14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC14">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD14">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="BE14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF14">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG14">
-        <v>97</v>
+        <v>82.5</v>
       </c>
       <c r="BH14">
-        <v>109.33</v>
+        <v>86.67</v>
       </c>
       <c r="BI14">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="BJ14">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="BK14">
-        <v>93.5</v>
+        <v>54.5</v>
       </c>
       <c r="BL14">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="BM14">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BN14">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO14">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP14">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ14">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR14">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BS14" t="s">
         <v>103</v>
@@ -4107,16 +4104,16 @@
         <v>103</v>
       </c>
       <c r="BY14">
-        <v>676.8299999999999</v>
+        <v>476.67</v>
       </c>
       <c r="BZ14" t="s">
         <v>103</v>
       </c>
       <c r="CA14">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB14">
-        <v>80.575</v>
+        <v>79.44499999999999</v>
       </c>
       <c r="CC14">
         <v>17</v>
@@ -4136,22 +4133,22 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K15">
         <v>22</v>
@@ -4190,22 +4187,22 @@
         <v>7</v>
       </c>
       <c r="W15">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="X15">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y15">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z15">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="AA15">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB15">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC15">
         <v>19</v>
@@ -4244,94 +4241,94 @@
         <v>7</v>
       </c>
       <c r="AO15">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AP15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ15">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR15">
-        <v>93.33333333333333</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="AS15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT15">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AV15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW15">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX15">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AY15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ15">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA15">
-        <v>71</v>
+        <v>35.5</v>
       </c>
       <c r="BB15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC15">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD15">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="BE15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF15">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG15">
-        <v>83</v>
+        <v>67.5</v>
       </c>
       <c r="BH15">
-        <v>111.33</v>
+        <v>91.67</v>
       </c>
       <c r="BI15">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="BJ15">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="BK15">
-        <v>106</v>
+        <v>70.5</v>
       </c>
       <c r="BL15">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="BM15">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BN15">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO15">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP15">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ15">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR15">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BS15" t="s">
         <v>103</v>
@@ -4352,16 +4349,16 @@
         <v>103</v>
       </c>
       <c r="BY15">
-        <v>690.3299999999999</v>
+        <v>491.67</v>
       </c>
       <c r="BZ15" t="s">
         <v>103</v>
       </c>
       <c r="CA15">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB15">
-        <v>82.18214285714285</v>
+        <v>81.94500000000001</v>
       </c>
       <c r="CC15">
         <v>15</v>
@@ -4381,22 +4378,22 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K16">
         <v>21</v>
@@ -4435,22 +4432,22 @@
         <v>7</v>
       </c>
       <c r="W16">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="X16">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y16">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z16">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AA16">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB16">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC16">
         <v>25</v>
@@ -4489,94 +4486,94 @@
         <v>7</v>
       </c>
       <c r="AO16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AP16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR16">
-        <v>93.33333333333333</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="AS16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AV16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX16">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA16">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="BB16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD16">
+        <v>49</v>
+      </c>
+      <c r="BE16">
+        <v>50</v>
+      </c>
+      <c r="BF16">
+        <v>15</v>
+      </c>
+      <c r="BG16">
+        <v>97.5</v>
+      </c>
+      <c r="BH16">
+        <v>79.17</v>
+      </c>
+      <c r="BI16">
+        <v>96</v>
+      </c>
+      <c r="BJ16">
+        <v>69</v>
+      </c>
+      <c r="BK16">
+        <v>84</v>
+      </c>
+      <c r="BL16">
         <v>98</v>
       </c>
-      <c r="BE16">
-        <v>100</v>
-      </c>
-      <c r="BF16">
-        <v>30</v>
-      </c>
-      <c r="BG16">
-        <v>119</v>
-      </c>
-      <c r="BH16">
-        <v>106.33</v>
-      </c>
-      <c r="BI16">
-        <v>146</v>
-      </c>
-      <c r="BJ16">
-        <v>108</v>
-      </c>
-      <c r="BK16">
-        <v>127</v>
-      </c>
-      <c r="BL16">
-        <v>147</v>
-      </c>
       <c r="BM16">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BN16">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO16">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP16">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ16">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR16">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BS16" t="s">
         <v>103</v>
@@ -4597,19 +4594,19 @@
         <v>103</v>
       </c>
       <c r="BY16">
-        <v>753.3299999999999</v>
+        <v>523.6700000000001</v>
       </c>
       <c r="BZ16" t="s">
         <v>103</v>
       </c>
       <c r="CA16">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB16">
-        <v>89.68214285714285</v>
+        <v>87.27833333333335</v>
       </c>
       <c r="CC16">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:81">
@@ -4626,22 +4623,22 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K17">
         <v>21</v>
@@ -4680,22 +4677,22 @@
         <v>7</v>
       </c>
       <c r="W17">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X17">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y17">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z17">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AA17">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB17">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC17">
         <v>21</v>
@@ -4734,94 +4731,94 @@
         <v>7</v>
       </c>
       <c r="AO17">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AP17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ17">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR17">
-        <v>93.33333333333333</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="AS17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT17">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AV17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW17">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX17">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AY17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ17">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA17">
-        <v>73</v>
+        <v>36.5</v>
       </c>
       <c r="BB17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC17">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD17">
-        <v>81</v>
+        <v>40.5</v>
       </c>
       <c r="BE17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF17">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG17">
-        <v>85</v>
+        <v>72.5</v>
       </c>
       <c r="BH17">
-        <v>110.33</v>
+        <v>89.17</v>
       </c>
       <c r="BI17">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="BJ17">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="BK17">
-        <v>111.5</v>
+        <v>75</v>
       </c>
       <c r="BL17">
-        <v>122</v>
+        <v>81.5</v>
       </c>
       <c r="BM17">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BN17">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO17">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP17">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ17">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR17">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BS17" t="s">
         <v>103</v>
@@ -4842,16 +4839,16 @@
         <v>103</v>
       </c>
       <c r="BY17">
-        <v>692.8299999999999</v>
+        <v>493.17</v>
       </c>
       <c r="BZ17" t="s">
         <v>103</v>
       </c>
       <c r="CA17">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB17">
-        <v>82.4797619047619</v>
+        <v>82.19500000000001</v>
       </c>
       <c r="CC17">
         <v>14</v>
@@ -4871,22 +4868,22 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K18">
         <v>25</v>
@@ -4925,22 +4922,22 @@
         <v>7</v>
       </c>
       <c r="W18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y18">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AA18">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB18">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC18">
         <v>25</v>
@@ -4979,94 +4976,94 @@
         <v>7</v>
       </c>
       <c r="AO18">
-        <v>86.66666666666667</v>
+        <v>43.33333333333334</v>
       </c>
       <c r="AP18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ18">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AS18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT18">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AV18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW18">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX18">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="AY18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ18">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA18">
-        <v>97</v>
+        <v>48.5</v>
       </c>
       <c r="BB18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC18">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD18">
-        <v>95</v>
+        <v>47.5</v>
       </c>
       <c r="BE18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF18">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG18">
-        <v>106.67</v>
+        <v>93.33</v>
       </c>
       <c r="BH18">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BI18">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BJ18">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="BK18">
-        <v>137</v>
+        <v>88.5</v>
       </c>
       <c r="BL18">
-        <v>144</v>
+        <v>96.5</v>
       </c>
       <c r="BM18">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BN18">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO18">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP18">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ18">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR18">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BS18" t="s">
         <v>103</v>
@@ -5087,19 +5084,19 @@
         <v>103</v>
       </c>
       <c r="BY18">
-        <v>786.6700000000001</v>
+        <v>565.3299999999999</v>
       </c>
       <c r="BZ18" t="s">
         <v>103</v>
       </c>
       <c r="CA18">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB18">
-        <v>93.65119047619048</v>
+        <v>94.22166666666666</v>
       </c>
       <c r="CC18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:81">
@@ -5116,22 +5113,22 @@
         <v>18</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K19">
         <v>25</v>
@@ -5170,22 +5167,22 @@
         <v>7</v>
       </c>
       <c r="W19">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X19">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y19">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z19">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AA19">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB19">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC19">
         <v>25</v>
@@ -5224,94 +5221,94 @@
         <v>7</v>
       </c>
       <c r="AO19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AP19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ19">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR19">
-        <v>96.66666666666667</v>
+        <v>48.33333333333334</v>
       </c>
       <c r="AS19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT19">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AV19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW19">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX19">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="AY19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ19">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA19">
+        <v>46</v>
+      </c>
+      <c r="BB19">
+        <v>50</v>
+      </c>
+      <c r="BC19">
+        <v>15</v>
+      </c>
+      <c r="BD19">
+        <v>47</v>
+      </c>
+      <c r="BE19">
+        <v>50</v>
+      </c>
+      <c r="BF19">
+        <v>15</v>
+      </c>
+      <c r="BG19">
+        <v>100</v>
+      </c>
+      <c r="BH19">
+        <v>98.33</v>
+      </c>
+      <c r="BI19">
+        <v>100</v>
+      </c>
+      <c r="BJ19">
+        <v>76</v>
+      </c>
+      <c r="BK19">
         <v>92</v>
       </c>
-      <c r="BB19">
-        <v>100</v>
-      </c>
-      <c r="BC19">
-        <v>30</v>
-      </c>
-      <c r="BD19">
-        <v>94</v>
-      </c>
-      <c r="BE19">
-        <v>100</v>
-      </c>
-      <c r="BF19">
-        <v>30</v>
-      </c>
-      <c r="BG19">
-        <v>120</v>
-      </c>
-      <c r="BH19">
-        <v>116.67</v>
-      </c>
-      <c r="BI19">
-        <v>150</v>
-      </c>
-      <c r="BJ19">
-        <v>117</v>
-      </c>
-      <c r="BK19">
-        <v>138</v>
-      </c>
       <c r="BL19">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="BM19">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BN19">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO19">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP19">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ19">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR19">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BS19" t="s">
         <v>103</v>
@@ -5332,19 +5329,19 @@
         <v>103</v>
       </c>
       <c r="BY19">
-        <v>784.6700000000001</v>
+        <v>562.3299999999999</v>
       </c>
       <c r="BZ19" t="s">
         <v>103</v>
       </c>
       <c r="CA19">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB19">
-        <v>93.41309523809525</v>
+        <v>93.72166666666666</v>
       </c>
       <c r="CC19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:81">
@@ -5361,22 +5358,22 @@
         <v>19</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K20">
         <v>21</v>
@@ -5415,22 +5412,22 @@
         <v>7</v>
       </c>
       <c r="W20">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="X20">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y20">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z20">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="AA20">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB20">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC20">
         <v>24</v>
@@ -5469,94 +5466,94 @@
         <v>7</v>
       </c>
       <c r="AO20">
-        <v>56.66666666666666</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="AP20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ20">
+        <v>15</v>
+      </c>
+      <c r="AR20">
+        <v>46.66666666666666</v>
+      </c>
+      <c r="AS20">
+        <v>50</v>
+      </c>
+      <c r="AT20">
+        <v>15</v>
+      </c>
+      <c r="AU20">
+        <v>50</v>
+      </c>
+      <c r="AV20">
+        <v>50</v>
+      </c>
+      <c r="AW20">
+        <v>15</v>
+      </c>
+      <c r="AX20">
+        <v>40</v>
+      </c>
+      <c r="AY20">
+        <v>50</v>
+      </c>
+      <c r="AZ20">
+        <v>15</v>
+      </c>
+      <c r="BA20">
         <v>30</v>
       </c>
-      <c r="AR20">
-        <v>93.33333333333333</v>
-      </c>
-      <c r="AS20">
-        <v>100</v>
-      </c>
-      <c r="AT20">
-        <v>30</v>
-      </c>
-      <c r="AU20">
-        <v>100</v>
-      </c>
-      <c r="AV20">
-        <v>100</v>
-      </c>
-      <c r="AW20">
-        <v>30</v>
-      </c>
-      <c r="AX20">
-        <v>80</v>
-      </c>
-      <c r="AY20">
-        <v>100</v>
-      </c>
-      <c r="AZ20">
-        <v>30</v>
-      </c>
-      <c r="BA20">
-        <v>60</v>
-      </c>
       <c r="BB20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC20">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD20">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="BE20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF20">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG20">
-        <v>69.67</v>
+        <v>60.83</v>
       </c>
       <c r="BH20">
-        <v>107.33</v>
+        <v>81.67</v>
       </c>
       <c r="BI20">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="BJ20">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="BK20">
-        <v>82.5</v>
+        <v>52.5</v>
       </c>
       <c r="BL20">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="BM20">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BN20">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO20">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP20">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ20">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR20">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BS20" t="s">
         <v>103</v>
@@ -5577,16 +5574,16 @@
         <v>103</v>
       </c>
       <c r="BY20">
-        <v>633.5</v>
+        <v>441</v>
       </c>
       <c r="BZ20" t="s">
         <v>103</v>
       </c>
       <c r="CA20">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB20">
-        <v>75.41666666666667</v>
+        <v>73.5</v>
       </c>
       <c r="CC20">
         <v>18</v>
@@ -5606,22 +5603,22 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="K21">
         <v>24</v>
@@ -5660,22 +5657,22 @@
         <v>7</v>
       </c>
       <c r="W21">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="X21">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y21">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Z21">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="AA21">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AB21">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="AC21">
         <v>25</v>
@@ -5714,94 +5711,94 @@
         <v>7</v>
       </c>
       <c r="AO21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AP21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ21">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AR21">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AS21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AT21">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AU21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AV21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW21">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AX21">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="AY21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AZ21">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BA21">
-        <v>87</v>
+        <v>43.5</v>
       </c>
       <c r="BB21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC21">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BD21">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="BE21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF21">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BG21">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BH21">
-        <v>109</v>
+        <v>92.5</v>
       </c>
       <c r="BI21">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="BJ21">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="BK21">
-        <v>127.5</v>
+        <v>84</v>
       </c>
       <c r="BL21">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="BM21">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BN21">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BO21">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BP21">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BQ21">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BR21">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BS21" t="s">
         <v>103</v>
@@ -5822,16 +5819,16 @@
         <v>103</v>
       </c>
       <c r="BY21">
-        <v>753.5</v>
+        <v>541.5</v>
       </c>
       <c r="BZ21" t="s">
         <v>103</v>
       </c>
       <c r="CA21">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="CB21">
-        <v>89.70238095238095</v>
+        <v>90.25</v>
       </c>
       <c r="CC21">
         <v>5</v>

--- a/NURSERY/Result_Final.xlsx
+++ b/NURSERY/Result_Final.xlsx
@@ -948,22 +948,22 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>21.25</v>
+        <v>8.5</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K2">
         <v>25</v>
@@ -1002,22 +1002,22 @@
         <v>7</v>
       </c>
       <c r="W2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC2">
         <v>25</v>
@@ -1056,22 +1056,22 @@
         <v>7</v>
       </c>
       <c r="AO2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AP2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AQ2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AR2">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="AS2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU2">
         <v>50</v>
@@ -1110,10 +1110,10 @@
         <v>15</v>
       </c>
       <c r="BG2">
-        <v>96.25</v>
+        <v>48.5</v>
       </c>
       <c r="BH2">
-        <v>90.83</v>
+        <v>46</v>
       </c>
       <c r="BI2">
         <v>100</v>
@@ -1128,10 +1128,10 @@
         <v>88</v>
       </c>
       <c r="BM2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BN2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO2">
         <v>100</v>
@@ -1164,16 +1164,16 @@
         <v>103</v>
       </c>
       <c r="BY2">
-        <v>519.5799999999999</v>
+        <v>427</v>
       </c>
       <c r="BZ2" t="s">
         <v>103</v>
       </c>
       <c r="CA2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB2">
-        <v>86.59666666666665</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="CC2">
         <v>10</v>
@@ -1193,22 +1193,22 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <v>18</v>
@@ -1247,22 +1247,22 @@
         <v>7</v>
       </c>
       <c r="W3">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="X3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z3">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AA3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC3">
         <v>20</v>
@@ -1301,22 +1301,22 @@
         <v>7</v>
       </c>
       <c r="AO3">
-        <v>16.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="AP3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AQ3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AR3">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="AS3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU3">
         <v>48</v>
@@ -1355,10 +1355,10 @@
         <v>15</v>
       </c>
       <c r="BG3">
-        <v>41.67</v>
+        <v>20</v>
       </c>
       <c r="BH3">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="BI3">
         <v>86</v>
@@ -1373,10 +1373,10 @@
         <v>47</v>
       </c>
       <c r="BM3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BN3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO3">
         <v>100</v>
@@ -1409,16 +1409,16 @@
         <v>103</v>
       </c>
       <c r="BY3">
-        <v>366.67</v>
+        <v>312</v>
       </c>
       <c r="BZ3" t="s">
         <v>103</v>
       </c>
       <c r="CA3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB3">
-        <v>61.11166666666666</v>
+        <v>62.4</v>
       </c>
       <c r="CC3">
         <v>19</v>
@@ -1438,22 +1438,22 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K4">
         <v>22</v>
@@ -1492,22 +1492,22 @@
         <v>7</v>
       </c>
       <c r="W4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="X4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC4">
         <v>25</v>
@@ -1546,22 +1546,22 @@
         <v>7</v>
       </c>
       <c r="AO4">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AP4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AQ4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AR4">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AS4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU4">
         <v>50</v>
@@ -1600,10 +1600,10 @@
         <v>15</v>
       </c>
       <c r="BG4">
-        <v>74.17</v>
+        <v>39</v>
       </c>
       <c r="BH4">
-        <v>82.5</v>
+        <v>41</v>
       </c>
       <c r="BI4">
         <v>97</v>
@@ -1618,10 +1618,10 @@
         <v>92</v>
       </c>
       <c r="BM4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BN4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO4">
         <v>100</v>
@@ -1654,19 +1654,19 @@
         <v>103</v>
       </c>
       <c r="BY4">
-        <v>502.67</v>
+        <v>426</v>
       </c>
       <c r="BZ4" t="s">
         <v>103</v>
       </c>
       <c r="CA4">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB4">
-        <v>83.77833333333334</v>
+        <v>85.2</v>
       </c>
       <c r="CC4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:81">
@@ -1683,22 +1683,22 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>25</v>
@@ -1737,22 +1737,22 @@
         <v>7</v>
       </c>
       <c r="W5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z5">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AA5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC5">
         <v>25</v>
@@ -1791,22 +1791,22 @@
         <v>7</v>
       </c>
       <c r="AO5">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="AP5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AQ5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AR5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AS5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU5">
         <v>50</v>
@@ -1845,10 +1845,10 @@
         <v>15</v>
       </c>
       <c r="BG5">
-        <v>98.33</v>
+        <v>49</v>
       </c>
       <c r="BH5">
-        <v>97.5</v>
+        <v>49</v>
       </c>
       <c r="BI5">
         <v>100</v>
@@ -1863,10 +1863,10 @@
         <v>98</v>
       </c>
       <c r="BM5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BN5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO5">
         <v>100</v>
@@ -1899,19 +1899,19 @@
         <v>103</v>
       </c>
       <c r="BY5">
-        <v>555.3299999999999</v>
+        <v>457.5</v>
       </c>
       <c r="BZ5" t="s">
         <v>103</v>
       </c>
       <c r="CA5">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB5">
-        <v>92.55499999999999</v>
+        <v>91.5</v>
       </c>
       <c r="CC5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:81">
@@ -1928,22 +1928,22 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K6">
         <v>25</v>
@@ -1982,22 +1982,22 @@
         <v>7</v>
       </c>
       <c r="W6">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="X6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z6">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AA6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC6">
         <v>25</v>
@@ -2036,22 +2036,22 @@
         <v>7</v>
       </c>
       <c r="AO6">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AP6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AQ6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AR6">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AS6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU6">
         <v>50</v>
@@ -2090,10 +2090,10 @@
         <v>15</v>
       </c>
       <c r="BG6">
-        <v>84.17</v>
+        <v>43</v>
       </c>
       <c r="BH6">
-        <v>89.17</v>
+        <v>45</v>
       </c>
       <c r="BI6">
         <v>100</v>
@@ -2108,10 +2108,10 @@
         <v>65</v>
       </c>
       <c r="BM6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BN6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO6">
         <v>100</v>
@@ -2144,16 +2144,16 @@
         <v>103</v>
       </c>
       <c r="BY6">
-        <v>486.84</v>
+        <v>401.5</v>
       </c>
       <c r="BZ6" t="s">
         <v>103</v>
       </c>
       <c r="CA6">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB6">
-        <v>81.14</v>
+        <v>80.30000000000001</v>
       </c>
       <c r="CC6">
         <v>16</v>
@@ -2173,22 +2173,22 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="I7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K7">
         <v>23</v>
@@ -2227,22 +2227,22 @@
         <v>7</v>
       </c>
       <c r="W7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC7">
         <v>25</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AQ7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AR7">
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>15</v>
       </c>
       <c r="BG7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="BH7">
-        <v>47.5</v>
+        <v>19</v>
       </c>
       <c r="BI7">
         <v>48</v>
@@ -2353,10 +2353,10 @@
         <v>49</v>
       </c>
       <c r="BM7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BN7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO7">
         <v>100</v>
@@ -2389,16 +2389,16 @@
         <v>103</v>
       </c>
       <c r="BY7">
-        <v>281.5</v>
+        <v>223</v>
       </c>
       <c r="BZ7" t="s">
         <v>103</v>
       </c>
       <c r="CA7">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB7">
-        <v>46.91666666666666</v>
+        <v>44.6</v>
       </c>
       <c r="CC7">
         <v>20</v>
@@ -2418,22 +2418,22 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>23.75</v>
+        <v>9.5</v>
       </c>
       <c r="F8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K8">
         <v>23</v>
@@ -2472,22 +2472,22 @@
         <v>7</v>
       </c>
       <c r="W8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC8">
         <v>25</v>
@@ -2526,22 +2526,22 @@
         <v>7</v>
       </c>
       <c r="AO8">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AP8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AQ8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AR8">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="AS8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU8">
         <v>50</v>
@@ -2580,10 +2580,10 @@
         <v>15</v>
       </c>
       <c r="BG8">
-        <v>95.42</v>
+        <v>47.5</v>
       </c>
       <c r="BH8">
-        <v>82.5</v>
+        <v>42</v>
       </c>
       <c r="BI8">
         <v>98</v>
@@ -2598,10 +2598,10 @@
         <v>92</v>
       </c>
       <c r="BM8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BN8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO8">
         <v>100</v>
@@ -2634,19 +2634,19 @@
         <v>103</v>
       </c>
       <c r="BY8">
-        <v>530.9200000000001</v>
+        <v>442.5</v>
       </c>
       <c r="BZ8" t="s">
         <v>103</v>
       </c>
       <c r="CA8">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB8">
-        <v>88.48666666666668</v>
+        <v>88.5</v>
       </c>
       <c r="CC8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:81">
@@ -2663,22 +2663,22 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K9">
         <v>23</v>
@@ -2717,22 +2717,22 @@
         <v>7</v>
       </c>
       <c r="W9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC9">
         <v>25</v>
@@ -2771,22 +2771,22 @@
         <v>7</v>
       </c>
       <c r="AO9">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="AP9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AQ9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AR9">
-        <v>43.33333333333334</v>
+        <v>26</v>
       </c>
       <c r="AS9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU9">
         <v>50</v>
@@ -2825,10 +2825,10 @@
         <v>15</v>
       </c>
       <c r="BG9">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="BH9">
-        <v>80.83</v>
+        <v>41</v>
       </c>
       <c r="BI9">
         <v>98</v>
@@ -2843,10 +2843,10 @@
         <v>94.5</v>
       </c>
       <c r="BM9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BN9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO9">
         <v>100</v>
@@ -2879,19 +2879,19 @@
         <v>103</v>
       </c>
       <c r="BY9">
-        <v>524.8299999999999</v>
+        <v>437</v>
       </c>
       <c r="BZ9" t="s">
         <v>103</v>
       </c>
       <c r="CA9">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB9">
-        <v>87.47166666666666</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="CC9">
-        <v>8</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="10" spans="1:81">
@@ -2908,22 +2908,22 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K10">
         <v>20</v>
@@ -2962,22 +2962,22 @@
         <v>7</v>
       </c>
       <c r="W10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC10">
         <v>20</v>
@@ -3016,22 +3016,22 @@
         <v>7</v>
       </c>
       <c r="AO10">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AP10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AQ10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AR10">
-        <v>43.33333333333334</v>
+        <v>26</v>
       </c>
       <c r="AS10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU10">
         <v>50</v>
@@ -3070,10 +3070,10 @@
         <v>15</v>
       </c>
       <c r="BG10">
-        <v>82.5</v>
+        <v>40</v>
       </c>
       <c r="BH10">
-        <v>85.83</v>
+        <v>43</v>
       </c>
       <c r="BI10">
         <v>90</v>
@@ -3088,10 +3088,10 @@
         <v>96.5</v>
       </c>
       <c r="BM10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BN10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO10">
         <v>100</v>
@@ -3124,19 +3124,19 @@
         <v>103</v>
       </c>
       <c r="BY10">
-        <v>529.8299999999999</v>
+        <v>444.5</v>
       </c>
       <c r="BZ10" t="s">
         <v>103</v>
       </c>
       <c r="CA10">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB10">
-        <v>88.30499999999999</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="CC10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:81">
@@ -3153,22 +3153,22 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K11">
         <v>18</v>
@@ -3207,22 +3207,22 @@
         <v>7</v>
       </c>
       <c r="W11">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="X11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z11">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AA11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC11">
         <v>22</v>
@@ -3261,22 +3261,22 @@
         <v>7</v>
       </c>
       <c r="AO11">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AP11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AQ11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AR11">
-        <v>33.33333333333334</v>
+        <v>20</v>
       </c>
       <c r="AS11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU11">
         <v>50</v>
@@ -3315,10 +3315,10 @@
         <v>15</v>
       </c>
       <c r="BG11">
-        <v>84.17</v>
+        <v>43</v>
       </c>
       <c r="BH11">
-        <v>65.83</v>
+        <v>33</v>
       </c>
       <c r="BI11">
         <v>90</v>
@@ -3333,10 +3333,10 @@
         <v>93</v>
       </c>
       <c r="BM11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BN11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO11">
         <v>100</v>
@@ -3369,19 +3369,19 @@
         <v>103</v>
       </c>
       <c r="BY11">
-        <v>497.5</v>
+        <v>423.5</v>
       </c>
       <c r="BZ11" t="s">
         <v>103</v>
       </c>
       <c r="CA11">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB11">
-        <v>82.91666666666667</v>
+        <v>84.7</v>
       </c>
       <c r="CC11">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:81">
@@ -3398,22 +3398,22 @@
         <v>11</v>
       </c>
       <c r="E12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K12">
         <v>21</v>
@@ -3452,22 +3452,22 @@
         <v>7</v>
       </c>
       <c r="W12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC12">
         <v>25</v>
@@ -3506,22 +3506,22 @@
         <v>7</v>
       </c>
       <c r="AO12">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="AP12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AQ12">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AR12">
-        <v>43.33333333333334</v>
+        <v>26</v>
       </c>
       <c r="AS12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT12">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU12">
         <v>50</v>
@@ -3560,10 +3560,10 @@
         <v>15</v>
       </c>
       <c r="BG12">
-        <v>98.33</v>
+        <v>49</v>
       </c>
       <c r="BH12">
-        <v>93.33</v>
+        <v>46</v>
       </c>
       <c r="BI12">
         <v>96</v>
@@ -3578,10 +3578,10 @@
         <v>81</v>
       </c>
       <c r="BM12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BN12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO12">
         <v>100</v>
@@ -3614,19 +3614,19 @@
         <v>103</v>
       </c>
       <c r="BY12">
-        <v>504.66</v>
+        <v>408</v>
       </c>
       <c r="BZ12" t="s">
         <v>103</v>
       </c>
       <c r="CA12">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB12">
-        <v>84.11</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="CC12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:81">
@@ -3643,22 +3643,22 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="I13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K13">
         <v>24</v>
@@ -3697,22 +3697,22 @@
         <v>7</v>
       </c>
       <c r="W13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC13">
         <v>25</v>
@@ -3751,22 +3751,22 @@
         <v>7</v>
       </c>
       <c r="AO13">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AP13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AQ13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AR13">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="AS13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU13">
         <v>50</v>
@@ -3805,10 +3805,10 @@
         <v>15</v>
       </c>
       <c r="BG13">
-        <v>96.67</v>
+        <v>48</v>
       </c>
       <c r="BH13">
-        <v>90.83</v>
+        <v>46</v>
       </c>
       <c r="BI13">
         <v>99</v>
@@ -3823,10 +3823,10 @@
         <v>95.5</v>
       </c>
       <c r="BM13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BN13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO13">
         <v>100</v>
@@ -3859,19 +3859,19 @@
         <v>103</v>
       </c>
       <c r="BY13">
-        <v>553.5</v>
+        <v>460</v>
       </c>
       <c r="BZ13" t="s">
         <v>103</v>
       </c>
       <c r="CA13">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB13">
-        <v>92.25</v>
+        <v>92</v>
       </c>
       <c r="CC13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:81">
@@ -3888,22 +3888,22 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K14">
         <v>22</v>
@@ -3942,22 +3942,22 @@
         <v>7</v>
       </c>
       <c r="W14">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="X14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC14">
         <v>25</v>
@@ -3996,22 +3996,22 @@
         <v>7</v>
       </c>
       <c r="AO14">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AP14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AQ14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AR14">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AS14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU14">
         <v>45</v>
@@ -4050,10 +4050,10 @@
         <v>15</v>
       </c>
       <c r="BG14">
-        <v>82.5</v>
+        <v>41</v>
       </c>
       <c r="BH14">
-        <v>86.67</v>
+        <v>44</v>
       </c>
       <c r="BI14">
         <v>92</v>
@@ -4068,10 +4068,10 @@
         <v>84</v>
       </c>
       <c r="BM14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BN14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO14">
         <v>100</v>
@@ -4104,16 +4104,16 @@
         <v>103</v>
       </c>
       <c r="BY14">
-        <v>476.67</v>
+        <v>392.5</v>
       </c>
       <c r="BZ14" t="s">
         <v>103</v>
       </c>
       <c r="CA14">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB14">
-        <v>79.44499999999999</v>
+        <v>78.5</v>
       </c>
       <c r="CC14">
         <v>17</v>
@@ -4133,22 +4133,22 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="F15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="I15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K15">
         <v>22</v>
@@ -4187,22 +4187,22 @@
         <v>7</v>
       </c>
       <c r="W15">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="X15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z15">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AA15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC15">
         <v>19</v>
@@ -4241,22 +4241,22 @@
         <v>7</v>
       </c>
       <c r="AO15">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AP15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AQ15">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AR15">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AS15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT15">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU15">
         <v>50</v>
@@ -4295,10 +4295,10 @@
         <v>15</v>
       </c>
       <c r="BG15">
-        <v>67.5</v>
+        <v>34</v>
       </c>
       <c r="BH15">
-        <v>91.67</v>
+        <v>46</v>
       </c>
       <c r="BI15">
         <v>91</v>
@@ -4313,10 +4313,10 @@
         <v>87</v>
       </c>
       <c r="BM15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BN15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO15">
         <v>100</v>
@@ -4349,19 +4349,19 @@
         <v>103</v>
       </c>
       <c r="BY15">
-        <v>491.67</v>
+        <v>412.5</v>
       </c>
       <c r="BZ15" t="s">
         <v>103</v>
       </c>
       <c r="CA15">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB15">
-        <v>81.94500000000001</v>
+        <v>82.5</v>
       </c>
       <c r="CC15">
-        <v>15</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="16" spans="1:81">
@@ -4378,22 +4378,22 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K16">
         <v>21</v>
@@ -4432,22 +4432,22 @@
         <v>7</v>
       </c>
       <c r="W16">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="X16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC16">
         <v>25</v>
@@ -4486,22 +4486,22 @@
         <v>7</v>
       </c>
       <c r="AO16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AP16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AQ16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AR16">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AS16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU16">
         <v>50</v>
@@ -4540,10 +4540,10 @@
         <v>15</v>
       </c>
       <c r="BG16">
-        <v>97.5</v>
+        <v>49</v>
       </c>
       <c r="BH16">
-        <v>79.17</v>
+        <v>41</v>
       </c>
       <c r="BI16">
         <v>96</v>
@@ -4558,10 +4558,10 @@
         <v>98</v>
       </c>
       <c r="BM16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BN16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO16">
         <v>100</v>
@@ -4594,19 +4594,19 @@
         <v>103</v>
       </c>
       <c r="BY16">
-        <v>523.6700000000001</v>
+        <v>437</v>
       </c>
       <c r="BZ16" t="s">
         <v>103</v>
       </c>
       <c r="CA16">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB16">
-        <v>87.27833333333335</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="CC16">
-        <v>9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="17" spans="1:81">
@@ -4623,22 +4623,22 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="I17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K17">
         <v>21</v>
@@ -4677,22 +4677,22 @@
         <v>7</v>
       </c>
       <c r="W17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC17">
         <v>21</v>
@@ -4731,22 +4731,22 @@
         <v>7</v>
       </c>
       <c r="AO17">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AP17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AQ17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AR17">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AS17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU17">
         <v>50</v>
@@ -4785,10 +4785,10 @@
         <v>15</v>
       </c>
       <c r="BG17">
-        <v>72.5</v>
+        <v>36</v>
       </c>
       <c r="BH17">
-        <v>89.17</v>
+        <v>45</v>
       </c>
       <c r="BI17">
         <v>92</v>
@@ -4803,10 +4803,10 @@
         <v>81.5</v>
       </c>
       <c r="BM17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BN17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO17">
         <v>100</v>
@@ -4839,19 +4839,19 @@
         <v>103</v>
       </c>
       <c r="BY17">
-        <v>493.17</v>
+        <v>412.5</v>
       </c>
       <c r="BZ17" t="s">
         <v>103</v>
       </c>
       <c r="CA17">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB17">
-        <v>82.19500000000001</v>
+        <v>82.5</v>
       </c>
       <c r="CC17">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="18" spans="1:81">
@@ -4868,22 +4868,22 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K18">
         <v>25</v>
@@ -4922,22 +4922,22 @@
         <v>7</v>
       </c>
       <c r="W18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC18">
         <v>25</v>
@@ -4976,22 +4976,22 @@
         <v>7</v>
       </c>
       <c r="AO18">
-        <v>43.33333333333334</v>
+        <v>26</v>
       </c>
       <c r="AP18">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AQ18">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AR18">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AS18">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT18">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU18">
         <v>50</v>
@@ -5030,10 +5030,10 @@
         <v>15</v>
       </c>
       <c r="BG18">
-        <v>93.33</v>
+        <v>46</v>
       </c>
       <c r="BH18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BI18">
         <v>100</v>
@@ -5048,10 +5048,10 @@
         <v>96.5</v>
       </c>
       <c r="BM18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BN18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO18">
         <v>100</v>
@@ -5084,16 +5084,16 @@
         <v>103</v>
       </c>
       <c r="BY18">
-        <v>565.3299999999999</v>
+        <v>468</v>
       </c>
       <c r="BZ18" t="s">
         <v>103</v>
       </c>
       <c r="CA18">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB18">
-        <v>94.22166666666666</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="CC18">
         <v>1</v>
@@ -5113,22 +5113,22 @@
         <v>18</v>
       </c>
       <c r="E19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G19">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J19">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K19">
         <v>25</v>
@@ -5167,22 +5167,22 @@
         <v>7</v>
       </c>
       <c r="W19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y19">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB19">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC19">
         <v>25</v>
@@ -5221,22 +5221,22 @@
         <v>7</v>
       </c>
       <c r="AO19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AP19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AQ19">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AR19">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="AS19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT19">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU19">
         <v>50</v>
@@ -5275,10 +5275,10 @@
         <v>15</v>
       </c>
       <c r="BG19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BH19">
-        <v>98.33</v>
+        <v>49</v>
       </c>
       <c r="BI19">
         <v>100</v>
@@ -5293,10 +5293,10 @@
         <v>96</v>
       </c>
       <c r="BM19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BN19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO19">
         <v>100</v>
@@ -5329,16 +5329,16 @@
         <v>103</v>
       </c>
       <c r="BY19">
-        <v>562.3299999999999</v>
+        <v>463</v>
       </c>
       <c r="BZ19" t="s">
         <v>103</v>
       </c>
       <c r="CA19">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB19">
-        <v>93.72166666666666</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="CC19">
         <v>2</v>
@@ -5358,22 +5358,22 @@
         <v>19</v>
       </c>
       <c r="E20">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J20">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K20">
         <v>21</v>
@@ -5412,22 +5412,22 @@
         <v>7</v>
       </c>
       <c r="W20">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="X20">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y20">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z20">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AA20">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB20">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC20">
         <v>24</v>
@@ -5466,22 +5466,22 @@
         <v>7</v>
       </c>
       <c r="AO20">
-        <v>28.33333333333333</v>
+        <v>17</v>
       </c>
       <c r="AP20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AQ20">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AR20">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AS20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT20">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU20">
         <v>50</v>
@@ -5520,10 +5520,10 @@
         <v>15</v>
       </c>
       <c r="BG20">
-        <v>60.83</v>
+        <v>30</v>
       </c>
       <c r="BH20">
-        <v>81.67</v>
+        <v>42</v>
       </c>
       <c r="BI20">
         <v>95</v>
@@ -5538,10 +5538,10 @@
         <v>73</v>
       </c>
       <c r="BM20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BN20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO20">
         <v>100</v>
@@ -5574,16 +5574,16 @@
         <v>103</v>
       </c>
       <c r="BY20">
-        <v>441</v>
+        <v>370.5</v>
       </c>
       <c r="BZ20" t="s">
         <v>103</v>
       </c>
       <c r="CA20">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB20">
-        <v>73.5</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="CC20">
         <v>18</v>
@@ -5603,22 +5603,22 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K21">
         <v>24</v>
@@ -5657,22 +5657,22 @@
         <v>7</v>
       </c>
       <c r="W21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="X21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Y21">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Z21">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AA21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB21">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC21">
         <v>25</v>
@@ -5711,22 +5711,22 @@
         <v>7</v>
       </c>
       <c r="AO21">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AP21">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AQ21">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AR21">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="AS21">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT21">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU21">
         <v>50</v>
@@ -5765,10 +5765,10 @@
         <v>15</v>
       </c>
       <c r="BG21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BH21">
-        <v>92.5</v>
+        <v>46</v>
       </c>
       <c r="BI21">
         <v>99</v>
@@ -5783,10 +5783,10 @@
         <v>93</v>
       </c>
       <c r="BM21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BN21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO21">
         <v>100</v>
@@ -5819,16 +5819,16 @@
         <v>103</v>
       </c>
       <c r="BY21">
-        <v>541.5</v>
+        <v>445</v>
       </c>
       <c r="BZ21" t="s">
         <v>103</v>
       </c>
       <c r="CA21">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB21">
-        <v>90.25</v>
+        <v>89</v>
       </c>
       <c r="CC21">
         <v>5</v>

--- a/NURSERY/Result_Final.xlsx
+++ b/NURSERY/Result_Final.xlsx
@@ -2891,7 +2891,7 @@
         <v>87.40000000000001</v>
       </c>
       <c r="CC9">
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:81">
@@ -4361,7 +4361,7 @@
         <v>82.5</v>
       </c>
       <c r="CC15">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:81">
@@ -4606,7 +4606,7 @@
         <v>87.40000000000001</v>
       </c>
       <c r="CC16">
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:81">
@@ -4851,7 +4851,7 @@
         <v>82.5</v>
       </c>
       <c r="CC17">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:81">

--- a/NURSERY/Result_Final.xlsx
+++ b/NURSERY/Result_Final.xlsx
@@ -1026,22 +1026,22 @@
         <v>7</v>
       </c>
       <c r="H2">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -1083,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE2">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF2">
         <v>3</v>
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU2">
-        <v>8.333333333333334</v>
+        <v>5</v>
       </c>
       <c r="AV2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX2">
         <v>20</v>
@@ -1182,10 +1182,10 @@
         <v>18</v>
       </c>
       <c r="BH2">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="BI2">
-        <v>8.33</v>
+        <v>5</v>
       </c>
       <c r="BJ2">
         <v>25</v>
@@ -1200,10 +1200,10 @@
         <v>100</v>
       </c>
       <c r="BN2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP2">
         <v>100</v>
@@ -1233,16 +1233,16 @@
         <v>126</v>
       </c>
       <c r="BY2">
-        <v>148.33</v>
+        <v>137.5</v>
       </c>
       <c r="BZ2" t="s">
         <v>125</v>
       </c>
       <c r="CA2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB2">
-        <v>24.72166666666666</v>
+        <v>27.5</v>
       </c>
       <c r="CC2">
         <v>36</v>
@@ -1271,22 +1271,22 @@
         <v>7</v>
       </c>
       <c r="H3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N3">
         <v>20</v>
@@ -1325,22 +1325,22 @@
         <v>7</v>
       </c>
       <c r="Z3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE3">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF3">
         <v>24</v>
@@ -1379,22 +1379,22 @@
         <v>15</v>
       </c>
       <c r="AR3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AS3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AV3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX3">
         <v>47</v>
@@ -1427,10 +1427,10 @@
         <v>98</v>
       </c>
       <c r="BH3">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="BI3">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="BJ3">
         <v>91</v>
@@ -1445,10 +1445,10 @@
         <v>100</v>
       </c>
       <c r="BN3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP3">
         <v>100</v>
@@ -1478,19 +1478,19 @@
         <v>126</v>
       </c>
       <c r="BY3">
-        <v>542.5</v>
+        <v>451.5</v>
       </c>
       <c r="BZ3" t="s">
         <v>126</v>
       </c>
       <c r="CA3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB3">
-        <v>90.41666666666667</v>
+        <v>90.3</v>
       </c>
       <c r="CC3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:81">
@@ -1516,22 +1516,22 @@
         <v>7</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N4">
         <v>21</v>
@@ -1570,22 +1570,22 @@
         <v>7</v>
       </c>
       <c r="Z4">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AA4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC4">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AD4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF4">
         <v>24</v>
@@ -1624,22 +1624,22 @@
         <v>15</v>
       </c>
       <c r="AR4">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="AS4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU4">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="AV4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX4">
         <v>48</v>
@@ -1672,10 +1672,10 @@
         <v>79</v>
       </c>
       <c r="BH4">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="BI4">
-        <v>82.5</v>
+        <v>42</v>
       </c>
       <c r="BJ4">
         <v>93</v>
@@ -1690,10 +1690,10 @@
         <v>100</v>
       </c>
       <c r="BN4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP4">
         <v>100</v>
@@ -1723,19 +1723,19 @@
         <v>126</v>
       </c>
       <c r="BY4">
-        <v>495</v>
+        <v>412.5</v>
       </c>
       <c r="BZ4" t="s">
         <v>126</v>
       </c>
       <c r="CA4">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB4">
         <v>82.5</v>
       </c>
       <c r="CC4">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:81">
@@ -1761,22 +1761,22 @@
         <v>7</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N5">
         <v>15.5</v>
@@ -1815,22 +1815,22 @@
         <v>7</v>
       </c>
       <c r="Z5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE5">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF5">
         <v>19</v>
@@ -1869,22 +1869,22 @@
         <v>15</v>
       </c>
       <c r="AR5">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="AS5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU5">
-        <v>26.66666666666667</v>
+        <v>16</v>
       </c>
       <c r="AV5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX5">
         <v>47</v>
@@ -1917,10 +1917,10 @@
         <v>84</v>
       </c>
       <c r="BH5">
-        <v>88.33</v>
+        <v>45</v>
       </c>
       <c r="BI5">
-        <v>66.67</v>
+        <v>32</v>
       </c>
       <c r="BJ5">
         <v>81.5</v>
@@ -1935,10 +1935,10 @@
         <v>100</v>
       </c>
       <c r="BN5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP5">
         <v>100</v>
@@ -1968,19 +1968,19 @@
         <v>126</v>
       </c>
       <c r="BY5">
-        <v>468</v>
+        <v>390</v>
       </c>
       <c r="BZ5" t="s">
         <v>126</v>
       </c>
       <c r="CA5">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB5">
         <v>78</v>
       </c>
       <c r="CC5">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:81">
@@ -2006,22 +2006,22 @@
         <v>7</v>
       </c>
       <c r="H6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N6">
         <v>7.5</v>
@@ -2060,22 +2060,22 @@
         <v>7</v>
       </c>
       <c r="Z6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AA6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC6">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE6">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF6">
         <v>15</v>
@@ -2114,22 +2114,22 @@
         <v>15</v>
       </c>
       <c r="AR6">
-        <v>31.66666666666667</v>
+        <v>19</v>
       </c>
       <c r="AS6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU6">
-        <v>33.33333333333334</v>
+        <v>20</v>
       </c>
       <c r="AV6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX6">
         <v>18</v>
@@ -2162,10 +2162,10 @@
         <v>51</v>
       </c>
       <c r="BH6">
-        <v>49.17</v>
+        <v>26</v>
       </c>
       <c r="BI6">
-        <v>40.83</v>
+        <v>23</v>
       </c>
       <c r="BJ6">
         <v>40.5</v>
@@ -2180,10 +2180,10 @@
         <v>100</v>
       </c>
       <c r="BN6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP6">
         <v>100</v>
@@ -2213,16 +2213,16 @@
         <v>126</v>
       </c>
       <c r="BY6">
-        <v>268.5</v>
+        <v>227.5</v>
       </c>
       <c r="BZ6" t="s">
         <v>126</v>
       </c>
       <c r="CA6">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB6">
-        <v>44.75</v>
+        <v>45.5</v>
       </c>
       <c r="CC6">
         <v>33</v>
@@ -2251,22 +2251,22 @@
         <v>7</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N7">
         <v>11</v>
@@ -2305,22 +2305,22 @@
         <v>7</v>
       </c>
       <c r="Z7">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AA7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC7">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE7">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF7">
         <v>23</v>
@@ -2359,22 +2359,22 @@
         <v>15</v>
       </c>
       <c r="AR7">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AS7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU7">
-        <v>16.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="AV7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX7">
         <v>28</v>
@@ -2407,10 +2407,10 @@
         <v>66</v>
       </c>
       <c r="BH7">
-        <v>69.17</v>
+        <v>37</v>
       </c>
       <c r="BI7">
-        <v>24.17</v>
+        <v>13</v>
       </c>
       <c r="BJ7">
         <v>62</v>
@@ -2425,10 +2425,10 @@
         <v>100</v>
       </c>
       <c r="BN7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP7">
         <v>100</v>
@@ -2458,16 +2458,16 @@
         <v>126</v>
       </c>
       <c r="BY7">
-        <v>332.34</v>
+        <v>289</v>
       </c>
       <c r="BZ7" t="s">
         <v>126</v>
       </c>
       <c r="CA7">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB7">
-        <v>55.39000000000001</v>
+        <v>57.8</v>
       </c>
       <c r="CC7">
         <v>28</v>
@@ -2496,22 +2496,22 @@
         <v>7</v>
       </c>
       <c r="H8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N8">
         <v>11</v>
@@ -2550,22 +2550,22 @@
         <v>7</v>
       </c>
       <c r="Z8">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AA8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AD8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE8">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF8">
         <v>23.5</v>
@@ -2604,22 +2604,22 @@
         <v>15</v>
       </c>
       <c r="AR8">
-        <v>43.33333333333334</v>
+        <v>26</v>
       </c>
       <c r="AS8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU8">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AV8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX8">
         <v>42</v>
@@ -2652,10 +2652,10 @@
         <v>60</v>
       </c>
       <c r="BH8">
-        <v>63.33</v>
+        <v>34</v>
       </c>
       <c r="BI8">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="BJ8">
         <v>76.5</v>
@@ -2670,10 +2670,10 @@
         <v>100</v>
       </c>
       <c r="BN8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP8">
         <v>100</v>
@@ -2703,16 +2703,16 @@
         <v>126</v>
       </c>
       <c r="BY8">
-        <v>393.83</v>
+        <v>336.5</v>
       </c>
       <c r="BZ8" t="s">
         <v>126</v>
       </c>
       <c r="CA8">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB8">
-        <v>65.63833333333334</v>
+        <v>67.30000000000001</v>
       </c>
       <c r="CC8">
         <v>23</v>
@@ -2741,22 +2741,22 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <v>9.5</v>
@@ -2795,22 +2795,22 @@
         <v>7</v>
       </c>
       <c r="Z9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AA9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AD9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE9">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF9">
         <v>25</v>
@@ -2849,22 +2849,22 @@
         <v>15</v>
       </c>
       <c r="AR9">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AS9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU9">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AV9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX9">
         <v>44</v>
@@ -2897,10 +2897,10 @@
         <v>28</v>
       </c>
       <c r="BH9">
-        <v>79.17</v>
+        <v>41</v>
       </c>
       <c r="BI9">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="BJ9">
         <v>78.5</v>
@@ -2915,10 +2915,10 @@
         <v>100</v>
       </c>
       <c r="BN9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP9">
         <v>100</v>
@@ -2948,19 +2948,19 @@
         <v>126</v>
       </c>
       <c r="BY9">
-        <v>390.67</v>
+        <v>315.5</v>
       </c>
       <c r="BZ9" t="s">
         <v>126</v>
       </c>
       <c r="CA9">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB9">
-        <v>65.11166666666666</v>
+        <v>63.1</v>
       </c>
       <c r="CC9">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:81">
@@ -2986,22 +2986,22 @@
         <v>7</v>
       </c>
       <c r="H10">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="I10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="L10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <v>22.5</v>
@@ -3040,22 +3040,22 @@
         <v>7</v>
       </c>
       <c r="Z10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE10">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF10">
         <v>25</v>
@@ -3094,22 +3094,22 @@
         <v>15</v>
       </c>
       <c r="AR10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AS10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AV10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX10">
         <v>46</v>
@@ -3142,10 +3142,10 @@
         <v>96</v>
       </c>
       <c r="BH10">
-        <v>97.5</v>
+        <v>49</v>
       </c>
       <c r="BI10">
-        <v>92.5</v>
+        <v>47</v>
       </c>
       <c r="BJ10">
         <v>93.5</v>
@@ -3160,10 +3160,10 @@
         <v>100</v>
       </c>
       <c r="BN10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP10">
         <v>100</v>
@@ -3193,19 +3193,19 @@
         <v>126</v>
       </c>
       <c r="BY10">
-        <v>544</v>
+        <v>450</v>
       </c>
       <c r="BZ10" t="s">
         <v>126</v>
       </c>
       <c r="CA10">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB10">
-        <v>90.66666666666666</v>
+        <v>90</v>
       </c>
       <c r="CC10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:81">
@@ -3231,22 +3231,22 @@
         <v>7</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N11">
         <v>11</v>
@@ -3285,22 +3285,22 @@
         <v>7</v>
       </c>
       <c r="Z11">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AA11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC11">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AD11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE11">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF11">
         <v>19</v>
@@ -3339,22 +3339,22 @@
         <v>15</v>
       </c>
       <c r="AR11">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="AS11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AV11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX11">
         <v>22</v>
@@ -3387,10 +3387,10 @@
         <v>93</v>
       </c>
       <c r="BH11">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="BI11">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="BJ11">
         <v>52</v>
@@ -3405,10 +3405,10 @@
         <v>100</v>
       </c>
       <c r="BN11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP11">
         <v>100</v>
@@ -3438,16 +3438,16 @@
         <v>126</v>
       </c>
       <c r="BY11">
-        <v>348</v>
+        <v>297</v>
       </c>
       <c r="BZ11" t="s">
         <v>126</v>
       </c>
       <c r="CA11">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB11">
-        <v>57.99999999999999</v>
+        <v>59.4</v>
       </c>
       <c r="CC11">
         <v>27</v>
@@ -3476,22 +3476,22 @@
         <v>7</v>
       </c>
       <c r="H12">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="I12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K12">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="L12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N12">
         <v>21</v>
@@ -3530,22 +3530,22 @@
         <v>7</v>
       </c>
       <c r="Z12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE12">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF12">
         <v>24</v>
@@ -3584,22 +3584,22 @@
         <v>15</v>
       </c>
       <c r="AR12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AS12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT12">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AV12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW12">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX12">
         <v>45</v>
@@ -3632,10 +3632,10 @@
         <v>96</v>
       </c>
       <c r="BH12">
-        <v>92.5</v>
+        <v>47</v>
       </c>
       <c r="BI12">
-        <v>97.5</v>
+        <v>49</v>
       </c>
       <c r="BJ12">
         <v>90</v>
@@ -3650,10 +3650,10 @@
         <v>100</v>
       </c>
       <c r="BN12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP12">
         <v>100</v>
@@ -3683,19 +3683,19 @@
         <v>126</v>
       </c>
       <c r="BY12">
-        <v>544</v>
+        <v>450</v>
       </c>
       <c r="BZ12" t="s">
         <v>126</v>
       </c>
       <c r="CA12">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB12">
-        <v>90.66666666666666</v>
+        <v>90</v>
       </c>
       <c r="CC12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:81">
@@ -3724,19 +3724,19 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -3778,19 +3778,19 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC13">
         <v>0</v>
       </c>
       <c r="AD13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE13">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -3832,19 +3832,19 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU13">
         <v>0</v>
       </c>
       <c r="AV13">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX13">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         <v>100</v>
       </c>
       <c r="BN13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP13">
         <v>100</v>
@@ -3934,7 +3934,7 @@
         <v>125</v>
       </c>
       <c r="CA13">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB13">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>7</v>
       </c>
       <c r="H14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N14">
         <v>7</v>
@@ -4020,22 +4020,22 @@
         <v>7</v>
       </c>
       <c r="Z14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC14">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE14">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF14">
         <v>24</v>
@@ -4074,22 +4074,22 @@
         <v>15</v>
       </c>
       <c r="AR14">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="AS14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AV14">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX14">
         <v>32</v>
@@ -4122,10 +4122,10 @@
         <v>52</v>
       </c>
       <c r="BH14">
-        <v>57.5</v>
+        <v>32</v>
       </c>
       <c r="BI14">
-        <v>22.5</v>
+        <v>12</v>
       </c>
       <c r="BJ14">
         <v>63</v>
@@ -4140,10 +4140,10 @@
         <v>100</v>
       </c>
       <c r="BN14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO14">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP14">
         <v>100</v>
@@ -4173,19 +4173,19 @@
         <v>126</v>
       </c>
       <c r="BY14">
-        <v>282.5</v>
+        <v>246.5</v>
       </c>
       <c r="BZ14" t="s">
         <v>126</v>
       </c>
       <c r="CA14">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB14">
-        <v>47.08333333333334</v>
+        <v>49.3</v>
       </c>
       <c r="CC14">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:81">
@@ -4211,22 +4211,22 @@
         <v>7</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N15">
         <v>23.5</v>
@@ -4265,22 +4265,22 @@
         <v>7</v>
       </c>
       <c r="Z15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE15">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF15">
         <v>22</v>
@@ -4319,22 +4319,22 @@
         <v>15</v>
       </c>
       <c r="AR15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AS15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT15">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AV15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW15">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX15">
         <v>46</v>
@@ -4367,10 +4367,10 @@
         <v>96</v>
       </c>
       <c r="BH15">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="BI15">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="BJ15">
         <v>91.5</v>
@@ -4385,10 +4385,10 @@
         <v>100</v>
       </c>
       <c r="BN15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP15">
         <v>100</v>
@@ -4418,16 +4418,16 @@
         <v>126</v>
       </c>
       <c r="BY15">
-        <v>517.5</v>
+        <v>423.5</v>
       </c>
       <c r="BZ15" t="s">
         <v>126</v>
       </c>
       <c r="CA15">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB15">
-        <v>86.25</v>
+        <v>84.7</v>
       </c>
       <c r="CC15">
         <v>10</v>
@@ -4459,19 +4459,19 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N16">
         <v>18</v>
@@ -4510,22 +4510,22 @@
         <v>7</v>
       </c>
       <c r="Z16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD16">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE16">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF16">
         <v>24.5</v>
@@ -4564,22 +4564,22 @@
         <v>15</v>
       </c>
       <c r="AR16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AS16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AV16">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX16">
         <v>48</v>
@@ -4612,10 +4612,10 @@
         <v>87</v>
       </c>
       <c r="BH16">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="BI16">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="BJ16">
         <v>90.5</v>
@@ -4630,10 +4630,10 @@
         <v>100</v>
       </c>
       <c r="BN16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP16">
         <v>100</v>
@@ -4663,16 +4663,16 @@
         <v>126</v>
       </c>
       <c r="BY16">
-        <v>472.5</v>
+        <v>402.5</v>
       </c>
       <c r="BZ16" t="s">
         <v>126</v>
       </c>
       <c r="CA16">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB16">
-        <v>78.75</v>
+        <v>80.5</v>
       </c>
       <c r="CC16">
         <v>18</v>
@@ -4701,22 +4701,22 @@
         <v>7</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N17">
         <v>9</v>
@@ -4758,19 +4758,19 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC17">
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE17">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF17">
         <v>11</v>
@@ -4809,22 +4809,22 @@
         <v>15</v>
       </c>
       <c r="AR17">
-        <v>36.66666666666666</v>
+        <v>22</v>
       </c>
       <c r="AS17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU17">
-        <v>11.66666666666667</v>
+        <v>7</v>
       </c>
       <c r="AV17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW17">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX17">
         <v>30</v>
@@ -4857,10 +4857,10 @@
         <v>46</v>
       </c>
       <c r="BH17">
-        <v>46.67</v>
+        <v>26</v>
       </c>
       <c r="BI17">
-        <v>16.67</v>
+        <v>9</v>
       </c>
       <c r="BJ17">
         <v>50</v>
@@ -4875,10 +4875,10 @@
         <v>100</v>
       </c>
       <c r="BN17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP17">
         <v>100</v>
@@ -4908,16 +4908,16 @@
         <v>126</v>
       </c>
       <c r="BY17">
-        <v>252.34</v>
+        <v>224</v>
       </c>
       <c r="BZ17" t="s">
         <v>126</v>
       </c>
       <c r="CA17">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB17">
-        <v>42.05666666666667</v>
+        <v>44.8</v>
       </c>
       <c r="CC17">
         <v>34</v>
@@ -4946,22 +4946,22 @@
         <v>7</v>
       </c>
       <c r="H18">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N18">
         <v>19.5</v>
@@ -5000,22 +5000,22 @@
         <v>7</v>
       </c>
       <c r="Z18">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AA18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC18">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AD18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE18">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF18">
         <v>23</v>
@@ -5054,22 +5054,22 @@
         <v>15</v>
       </c>
       <c r="AR18">
-        <v>31.66666666666667</v>
+        <v>19</v>
       </c>
       <c r="AS18">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT18">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU18">
-        <v>8.333333333333334</v>
+        <v>5</v>
       </c>
       <c r="AV18">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW18">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX18">
         <v>40</v>
@@ -5102,10 +5102,10 @@
         <v>30</v>
       </c>
       <c r="BH18">
-        <v>56.67</v>
+        <v>29</v>
       </c>
       <c r="BI18">
-        <v>35.83</v>
+        <v>16</v>
       </c>
       <c r="BJ18">
         <v>82.5</v>
@@ -5120,10 +5120,10 @@
         <v>100</v>
       </c>
       <c r="BN18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP18">
         <v>100</v>
@@ -5153,16 +5153,16 @@
         <v>126</v>
       </c>
       <c r="BY18">
-        <v>357</v>
+        <v>309.5</v>
       </c>
       <c r="BZ18" t="s">
         <v>126</v>
       </c>
       <c r="CA18">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB18">
-        <v>59.5</v>
+        <v>61.9</v>
       </c>
       <c r="CC18">
         <v>26</v>
@@ -5191,22 +5191,22 @@
         <v>7</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J19">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K19">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N19">
         <v>16.5</v>
@@ -5245,22 +5245,22 @@
         <v>7</v>
       </c>
       <c r="Z19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB19">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD19">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE19">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF19">
         <v>21.5</v>
@@ -5299,22 +5299,22 @@
         <v>15</v>
       </c>
       <c r="AR19">
-        <v>41.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="AS19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT19">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU19">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AV19">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW19">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX19">
         <v>47</v>
@@ -5347,10 +5347,10 @@
         <v>85</v>
       </c>
       <c r="BH19">
-        <v>86.67</v>
+        <v>43</v>
       </c>
       <c r="BI19">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="BJ19">
         <v>85</v>
@@ -5365,10 +5365,10 @@
         <v>100</v>
       </c>
       <c r="BN19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO19">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP19">
         <v>100</v>
@@ -5398,19 +5398,19 @@
         <v>126</v>
       </c>
       <c r="BY19">
-        <v>499.17</v>
+        <v>415.5</v>
       </c>
       <c r="BZ19" t="s">
         <v>126</v>
       </c>
       <c r="CA19">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB19">
-        <v>83.19500000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="CC19">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:81">
@@ -5436,22 +5436,22 @@
         <v>7</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I20">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J20">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M20">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N20">
         <v>23</v>
@@ -5490,22 +5490,22 @@
         <v>7</v>
       </c>
       <c r="Z20">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AA20">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB20">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC20">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AD20">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE20">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF20">
         <v>25</v>
@@ -5544,22 +5544,22 @@
         <v>15</v>
       </c>
       <c r="AR20">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AS20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT20">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AV20">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW20">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX20">
         <v>44</v>
@@ -5592,10 +5592,10 @@
         <v>95</v>
       </c>
       <c r="BH20">
-        <v>84.17</v>
+        <v>43</v>
       </c>
       <c r="BI20">
-        <v>87.5</v>
+        <v>45</v>
       </c>
       <c r="BJ20">
         <v>92</v>
@@ -5610,10 +5610,10 @@
         <v>100</v>
       </c>
       <c r="BN20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP20">
         <v>100</v>
@@ -5643,16 +5643,16 @@
         <v>126</v>
       </c>
       <c r="BY20">
-        <v>520.1700000000001</v>
+        <v>436.5</v>
       </c>
       <c r="BZ20" t="s">
         <v>126</v>
       </c>
       <c r="CA20">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB20">
-        <v>86.69500000000001</v>
+        <v>87.3</v>
       </c>
       <c r="CC20">
         <v>9</v>
@@ -5681,22 +5681,22 @@
         <v>7</v>
       </c>
       <c r="H21">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="I21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K21">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M21">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N21">
         <v>24.5</v>
@@ -5735,22 +5735,22 @@
         <v>7</v>
       </c>
       <c r="Z21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB21">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE21">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF21">
         <v>24</v>
@@ -5789,22 +5789,22 @@
         <v>15</v>
       </c>
       <c r="AR21">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AS21">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT21">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU21">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AV21">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW21">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX21">
         <v>48.5</v>
@@ -5837,10 +5837,10 @@
         <v>96</v>
       </c>
       <c r="BH21">
-        <v>92.5</v>
+        <v>47</v>
       </c>
       <c r="BI21">
-        <v>92.5</v>
+        <v>47</v>
       </c>
       <c r="BJ21">
         <v>97</v>
@@ -5855,10 +5855,10 @@
         <v>100</v>
       </c>
       <c r="BN21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP21">
         <v>100</v>
@@ -5888,16 +5888,16 @@
         <v>126</v>
       </c>
       <c r="BY21">
-        <v>560</v>
+        <v>469</v>
       </c>
       <c r="BZ21" t="s">
         <v>126</v>
       </c>
       <c r="CA21">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB21">
-        <v>93.33333333333333</v>
+        <v>93.8</v>
       </c>
       <c r="CC21">
         <v>2</v>
@@ -5926,22 +5926,22 @@
         <v>7</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I22">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J22">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K22">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N22">
         <v>23.5</v>
@@ -5980,22 +5980,22 @@
         <v>7</v>
       </c>
       <c r="Z22">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AA22">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB22">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC22">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AD22">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE22">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF22">
         <v>24</v>
@@ -6034,22 +6034,22 @@
         <v>15</v>
       </c>
       <c r="AR22">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="AS22">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT22">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU22">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AV22">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW22">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX22">
         <v>47</v>
@@ -6082,10 +6082,10 @@
         <v>94</v>
       </c>
       <c r="BH22">
-        <v>83.33</v>
+        <v>43</v>
       </c>
       <c r="BI22">
-        <v>87.5</v>
+        <v>45</v>
       </c>
       <c r="BJ22">
         <v>94.5</v>
@@ -6100,10 +6100,10 @@
         <v>100</v>
       </c>
       <c r="BN22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO22">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP22">
         <v>100</v>
@@ -6133,19 +6133,19 @@
         <v>126</v>
       </c>
       <c r="BY22">
-        <v>498.83</v>
+        <v>416</v>
       </c>
       <c r="BZ22" t="s">
         <v>126</v>
       </c>
       <c r="CA22">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB22">
-        <v>83.13833333333332</v>
+        <v>83.2</v>
       </c>
       <c r="CC22">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:81">
@@ -6171,22 +6171,22 @@
         <v>7</v>
       </c>
       <c r="H23">
-        <v>18.75</v>
+        <v>7.5</v>
       </c>
       <c r="I23">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J23">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K23">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M23">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N23">
         <v>22</v>
@@ -6225,22 +6225,22 @@
         <v>7</v>
       </c>
       <c r="Z23">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AA23">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB23">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC23">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AD23">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE23">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF23">
         <v>24.5</v>
@@ -6279,22 +6279,22 @@
         <v>15</v>
       </c>
       <c r="AR23">
-        <v>48.33333333333334</v>
+        <v>29</v>
       </c>
       <c r="AS23">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT23">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU23">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AV23">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW23">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX23">
         <v>46.5</v>
@@ -6327,10 +6327,10 @@
         <v>96</v>
       </c>
       <c r="BH23">
-        <v>87.08</v>
+        <v>44.5</v>
       </c>
       <c r="BI23">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="BJ23">
         <v>93</v>
@@ -6345,10 +6345,10 @@
         <v>100</v>
       </c>
       <c r="BN23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP23">
         <v>100</v>
@@ -6378,19 +6378,19 @@
         <v>126</v>
       </c>
       <c r="BY23">
-        <v>493.58</v>
+        <v>416</v>
       </c>
       <c r="BZ23" t="s">
         <v>126</v>
       </c>
       <c r="CA23">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB23">
-        <v>82.26333333333334</v>
+        <v>83.2</v>
       </c>
       <c r="CC23">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:81">
@@ -6416,22 +6416,22 @@
         <v>7</v>
       </c>
       <c r="H24">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="I24">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J24">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K24">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M24">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N24">
         <v>25</v>
@@ -6470,22 +6470,22 @@
         <v>7</v>
       </c>
       <c r="Z24">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA24">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB24">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC24">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD24">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE24">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF24">
         <v>25</v>
@@ -6524,22 +6524,22 @@
         <v>15</v>
       </c>
       <c r="AR24">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AS24">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT24">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU24">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AV24">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW24">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX24">
         <v>49</v>
@@ -6572,10 +6572,10 @@
         <v>94</v>
       </c>
       <c r="BH24">
-        <v>87.5</v>
+        <v>45</v>
       </c>
       <c r="BI24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BJ24">
         <v>99</v>
@@ -6590,10 +6590,10 @@
         <v>100</v>
       </c>
       <c r="BN24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP24">
         <v>100</v>
@@ -6623,16 +6623,16 @@
         <v>126</v>
       </c>
       <c r="BY24">
-        <v>556</v>
+        <v>463.5</v>
       </c>
       <c r="BZ24" t="s">
         <v>126</v>
       </c>
       <c r="CA24">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB24">
-        <v>92.66666666666666</v>
+        <v>92.7</v>
       </c>
       <c r="CC24">
         <v>3</v>
@@ -6661,22 +6661,22 @@
         <v>7</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J25">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K25">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M25">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N25">
         <v>20</v>
@@ -6715,22 +6715,22 @@
         <v>7</v>
       </c>
       <c r="Z25">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AA25">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB25">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC25">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AD25">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE25">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF25">
         <v>25</v>
@@ -6769,22 +6769,22 @@
         <v>15</v>
       </c>
       <c r="AR25">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AS25">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT25">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU25">
-        <v>41.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="AV25">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW25">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX25">
         <v>45</v>
@@ -6817,10 +6817,10 @@
         <v>92</v>
       </c>
       <c r="BH25">
-        <v>76.67</v>
+        <v>40</v>
       </c>
       <c r="BI25">
-        <v>71.67</v>
+        <v>37</v>
       </c>
       <c r="BJ25">
         <v>90</v>
@@ -6835,10 +6835,10 @@
         <v>100</v>
       </c>
       <c r="BN25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP25">
         <v>100</v>
@@ -6868,19 +6868,19 @@
         <v>126</v>
       </c>
       <c r="BY25">
-        <v>489.84</v>
+        <v>418.5</v>
       </c>
       <c r="BZ25" t="s">
         <v>126</v>
       </c>
       <c r="CA25">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB25">
-        <v>81.64</v>
+        <v>83.7</v>
       </c>
       <c r="CC25">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:81">
@@ -6906,22 +6906,22 @@
         <v>7</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I26">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J26">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K26">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M26">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N26">
         <v>17.5</v>
@@ -6960,22 +6960,22 @@
         <v>7</v>
       </c>
       <c r="Z26">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AA26">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB26">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC26">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AD26">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE26">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF26">
         <v>20</v>
@@ -7014,22 +7014,22 @@
         <v>15</v>
       </c>
       <c r="AR26">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AS26">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT26">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU26">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AV26">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW26">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX26">
         <v>31</v>
@@ -7062,10 +7062,10 @@
         <v>68</v>
       </c>
       <c r="BH26">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="BI26">
-        <v>42.5</v>
+        <v>20</v>
       </c>
       <c r="BJ26">
         <v>68.5</v>
@@ -7080,10 +7080,10 @@
         <v>100</v>
       </c>
       <c r="BN26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP26">
         <v>100</v>
@@ -7113,19 +7113,19 @@
         <v>126</v>
       </c>
       <c r="BY26">
-        <v>373</v>
+        <v>316.5</v>
       </c>
       <c r="BZ26" t="s">
         <v>126</v>
       </c>
       <c r="CA26">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB26">
-        <v>62.16666666666667</v>
+        <v>63.3</v>
       </c>
       <c r="CC26">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:81">
@@ -7151,22 +7151,22 @@
         <v>7</v>
       </c>
       <c r="H27">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="I27">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J27">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M27">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N27">
         <v>20.5</v>
@@ -7205,22 +7205,22 @@
         <v>7</v>
       </c>
       <c r="Z27">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AA27">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB27">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC27">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AD27">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE27">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF27">
         <v>22</v>
@@ -7259,22 +7259,22 @@
         <v>15</v>
       </c>
       <c r="AR27">
-        <v>43.33333333333334</v>
+        <v>26</v>
       </c>
       <c r="AS27">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT27">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU27">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AV27">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW27">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX27">
         <v>42.5</v>
@@ -7307,10 +7307,10 @@
         <v>83</v>
       </c>
       <c r="BH27">
-        <v>83.33</v>
+        <v>42</v>
       </c>
       <c r="BI27">
-        <v>77.5</v>
+        <v>41</v>
       </c>
       <c r="BJ27">
         <v>85</v>
@@ -7325,10 +7325,10 @@
         <v>100</v>
       </c>
       <c r="BN27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO27">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP27">
         <v>100</v>
@@ -7358,19 +7358,19 @@
         <v>126</v>
       </c>
       <c r="BY27">
-        <v>495.83</v>
+        <v>418</v>
       </c>
       <c r="BZ27" t="s">
         <v>126</v>
       </c>
       <c r="CA27">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB27">
-        <v>82.63833333333334</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="CC27">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:81">
@@ -7396,22 +7396,22 @@
         <v>7</v>
       </c>
       <c r="H28">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J28">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M28">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N28">
         <v>7.5</v>
@@ -7450,22 +7450,22 @@
         <v>7</v>
       </c>
       <c r="Z28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA28">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB28">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD28">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE28">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF28">
         <v>14.5</v>
@@ -7504,22 +7504,22 @@
         <v>15</v>
       </c>
       <c r="AR28">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AS28">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT28">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU28">
-        <v>3.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="AV28">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW28">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX28">
         <v>39</v>
@@ -7552,10 +7552,10 @@
         <v>40</v>
       </c>
       <c r="BH28">
-        <v>42.5</v>
+        <v>22</v>
       </c>
       <c r="BI28">
-        <v>13.33</v>
+        <v>6</v>
       </c>
       <c r="BJ28">
         <v>61</v>
@@ -7570,10 +7570,10 @@
         <v>100</v>
       </c>
       <c r="BN28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP28">
         <v>100</v>
@@ -7603,19 +7603,19 @@
         <v>126</v>
       </c>
       <c r="BY28">
-        <v>280.83</v>
+        <v>253</v>
       </c>
       <c r="BZ28" t="s">
         <v>126</v>
       </c>
       <c r="CA28">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB28">
-        <v>46.805</v>
+        <v>50.6</v>
       </c>
       <c r="CC28">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:81">
@@ -7644,19 +7644,19 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J29">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M29">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N29">
         <v>17</v>
@@ -7695,22 +7695,22 @@
         <v>7</v>
       </c>
       <c r="Z29">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AA29">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB29">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC29">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AD29">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE29">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF29">
         <v>25</v>
@@ -7749,22 +7749,22 @@
         <v>15</v>
       </c>
       <c r="AR29">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AS29">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT29">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU29">
-        <v>13.33333333333333</v>
+        <v>8</v>
       </c>
       <c r="AV29">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW29">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX29">
         <v>43</v>
@@ -7797,10 +7797,10 @@
         <v>20</v>
       </c>
       <c r="BH29">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="BI29">
-        <v>28.33</v>
+        <v>14</v>
       </c>
       <c r="BJ29">
         <v>85</v>
@@ -7815,10 +7815,10 @@
         <v>100</v>
       </c>
       <c r="BN29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP29">
         <v>100</v>
@@ -7848,16 +7848,16 @@
         <v>126</v>
       </c>
       <c r="BY29">
-        <v>307.33</v>
+        <v>274</v>
       </c>
       <c r="BZ29" t="s">
         <v>126</v>
       </c>
       <c r="CA29">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB29">
-        <v>51.22166666666666</v>
+        <v>54.8</v>
       </c>
       <c r="CC29">
         <v>29</v>
@@ -7886,22 +7886,22 @@
         <v>7</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J30">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M30">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N30">
         <v>20</v>
@@ -7940,22 +7940,22 @@
         <v>7</v>
       </c>
       <c r="Z30">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AA30">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB30">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC30">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AD30">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE30">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF30">
         <v>24</v>
@@ -7994,22 +7994,22 @@
         <v>15</v>
       </c>
       <c r="AR30">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AS30">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT30">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU30">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AV30">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW30">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX30">
         <v>45</v>
@@ -8042,10 +8042,10 @@
         <v>86</v>
       </c>
       <c r="BH30">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="BI30">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="BJ30">
         <v>89</v>
@@ -8060,10 +8060,10 @@
         <v>100</v>
       </c>
       <c r="BN30">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO30">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP30">
         <v>100</v>
@@ -8093,19 +8093,19 @@
         <v>126</v>
       </c>
       <c r="BY30">
-        <v>450.5</v>
+        <v>394.5</v>
       </c>
       <c r="BZ30" t="s">
         <v>126</v>
       </c>
       <c r="CA30">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB30">
-        <v>75.08333333333333</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="CC30">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:81">
@@ -8131,22 +8131,22 @@
         <v>7</v>
       </c>
       <c r="H31">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I31">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J31">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K31">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M31">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N31">
         <v>23</v>
@@ -8185,22 +8185,22 @@
         <v>7</v>
       </c>
       <c r="Z31">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA31">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB31">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC31">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AD31">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE31">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF31">
         <v>24</v>
@@ -8239,22 +8239,22 @@
         <v>15</v>
       </c>
       <c r="AR31">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AS31">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT31">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU31">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AV31">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW31">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX31">
         <v>47</v>
@@ -8287,10 +8287,10 @@
         <v>94</v>
       </c>
       <c r="BH31">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="BI31">
-        <v>97.5</v>
+        <v>49</v>
       </c>
       <c r="BJ31">
         <v>94</v>
@@ -8305,10 +8305,10 @@
         <v>100</v>
       </c>
       <c r="BN31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP31">
         <v>100</v>
@@ -8338,16 +8338,16 @@
         <v>126</v>
       </c>
       <c r="BY31">
-        <v>549</v>
+        <v>453.5</v>
       </c>
       <c r="BZ31" t="s">
         <v>126</v>
       </c>
       <c r="CA31">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB31">
-        <v>91.5</v>
+        <v>90.7</v>
       </c>
       <c r="CC31">
         <v>4</v>
@@ -8376,22 +8376,22 @@
         <v>7</v>
       </c>
       <c r="H32">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J32">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M32">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -8433,19 +8433,19 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB32">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC32">
         <v>0</v>
       </c>
       <c r="AD32">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE32">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -8484,22 +8484,22 @@
         <v>15</v>
       </c>
       <c r="AR32">
-        <v>16.66666666666667</v>
+        <v>10</v>
       </c>
       <c r="AS32">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT32">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU32">
-        <v>3.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="AV32">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW32">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX32">
         <v>4</v>
@@ -8532,10 +8532,10 @@
         <v>8</v>
       </c>
       <c r="BH32">
-        <v>19.17</v>
+        <v>11</v>
       </c>
       <c r="BI32">
-        <v>3.33</v>
+        <v>2</v>
       </c>
       <c r="BJ32">
         <v>4</v>
@@ -8550,10 +8550,10 @@
         <v>100</v>
       </c>
       <c r="BN32">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO32">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP32">
         <v>100</v>
@@ -8583,16 +8583,16 @@
         <v>126</v>
       </c>
       <c r="BY32">
-        <v>104.5</v>
+        <v>95</v>
       </c>
       <c r="BZ32" t="s">
         <v>125</v>
       </c>
       <c r="CA32">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB32">
-        <v>17.41666666666667</v>
+        <v>19</v>
       </c>
       <c r="CC32">
         <v>38</v>
@@ -8621,22 +8621,22 @@
         <v>7</v>
       </c>
       <c r="H33">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="I33">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J33">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K33">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M33">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N33">
         <v>20</v>
@@ -8675,22 +8675,22 @@
         <v>7</v>
       </c>
       <c r="Z33">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA33">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB33">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC33">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD33">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE33">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF33">
         <v>24.5</v>
@@ -8729,22 +8729,22 @@
         <v>15</v>
       </c>
       <c r="AR33">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AS33">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT33">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU33">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AV33">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW33">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX33">
         <v>49.5</v>
@@ -8777,10 +8777,10 @@
         <v>99</v>
       </c>
       <c r="BH33">
-        <v>97.5</v>
+        <v>49</v>
       </c>
       <c r="BI33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BJ33">
         <v>94</v>
@@ -8795,10 +8795,10 @@
         <v>100</v>
       </c>
       <c r="BN33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP33">
         <v>100</v>
@@ -8828,16 +8828,16 @@
         <v>126</v>
       </c>
       <c r="BY33">
-        <v>572.5</v>
+        <v>474</v>
       </c>
       <c r="BZ33" t="s">
         <v>126</v>
       </c>
       <c r="CA33">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB33">
-        <v>95.41666666666667</v>
+        <v>94.8</v>
       </c>
       <c r="CC33">
         <v>1</v>
@@ -8869,19 +8869,19 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J34">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M34">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -8923,19 +8923,19 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB34">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC34">
         <v>0</v>
       </c>
       <c r="AD34">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE34">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF34">
         <v>6</v>
@@ -8974,22 +8974,22 @@
         <v>15</v>
       </c>
       <c r="AR34">
-        <v>33.33333333333334</v>
+        <v>20</v>
       </c>
       <c r="AS34">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT34">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU34">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AV34">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW34">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX34">
         <v>9</v>
@@ -9022,10 +9022,10 @@
         <v>50</v>
       </c>
       <c r="BH34">
-        <v>33.33</v>
+        <v>20</v>
       </c>
       <c r="BI34">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BJ34">
         <v>15</v>
@@ -9040,10 +9040,10 @@
         <v>100</v>
       </c>
       <c r="BN34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP34">
         <v>100</v>
@@ -9073,19 +9073,19 @@
         <v>126</v>
       </c>
       <c r="BY34">
-        <v>148.33</v>
+        <v>131</v>
       </c>
       <c r="BZ34" t="s">
         <v>125</v>
       </c>
       <c r="CA34">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB34">
-        <v>24.72166666666666</v>
+        <v>26.2</v>
       </c>
       <c r="CC34">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:81">
@@ -9114,19 +9114,19 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J35">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M35">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -9168,19 +9168,19 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB35">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC35">
         <v>0</v>
       </c>
       <c r="AD35">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE35">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -9222,19 +9222,19 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT35">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU35">
         <v>0</v>
       </c>
       <c r="AV35">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW35">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX35">
         <v>0</v>
@@ -9285,10 +9285,10 @@
         <v>100</v>
       </c>
       <c r="BN35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP35">
         <v>100</v>
@@ -9324,7 +9324,7 @@
         <v>125</v>
       </c>
       <c r="CA35">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB35">
         <v>0</v>
@@ -9356,22 +9356,22 @@
         <v>7</v>
       </c>
       <c r="H36">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="I36">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J36">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K36">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M36">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N36">
         <v>25</v>
@@ -9410,22 +9410,22 @@
         <v>7</v>
       </c>
       <c r="Z36">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA36">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB36">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC36">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD36">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE36">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF36">
         <v>25</v>
@@ -9464,22 +9464,22 @@
         <v>15</v>
       </c>
       <c r="AR36">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AS36">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT36">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU36">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AV36">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW36">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX36">
         <v>49.5</v>
@@ -9512,10 +9512,10 @@
         <v>89</v>
       </c>
       <c r="BH36">
-        <v>97.5</v>
+        <v>49</v>
       </c>
       <c r="BI36">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BJ36">
         <v>99.5</v>
@@ -9530,10 +9530,10 @@
         <v>100</v>
       </c>
       <c r="BN36">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO36">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP36">
         <v>100</v>
@@ -9563,16 +9563,16 @@
         <v>126</v>
       </c>
       <c r="BY36">
-        <v>542</v>
+        <v>443.5</v>
       </c>
       <c r="BZ36" t="s">
         <v>126</v>
       </c>
       <c r="CA36">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB36">
-        <v>90.33333333333333</v>
+        <v>88.7</v>
       </c>
       <c r="CC36">
         <v>8</v>
@@ -9601,22 +9601,22 @@
         <v>7</v>
       </c>
       <c r="H37">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J37">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M37">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N37">
         <v>6</v>
@@ -9658,19 +9658,19 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB37">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC37">
         <v>0</v>
       </c>
       <c r="AD37">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE37">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF37">
         <v>14</v>
@@ -9709,22 +9709,22 @@
         <v>15</v>
       </c>
       <c r="AR37">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AS37">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT37">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU37">
-        <v>13.33333333333333</v>
+        <v>8</v>
       </c>
       <c r="AV37">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW37">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX37">
         <v>24</v>
@@ -9757,10 +9757,10 @@
         <v>16</v>
       </c>
       <c r="BH37">
-        <v>47.5</v>
+        <v>27</v>
       </c>
       <c r="BI37">
-        <v>13.33</v>
+        <v>8</v>
       </c>
       <c r="BJ37">
         <v>44</v>
@@ -9775,10 +9775,10 @@
         <v>100</v>
       </c>
       <c r="BN37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP37">
         <v>100</v>
@@ -9808,16 +9808,16 @@
         <v>126</v>
       </c>
       <c r="BY37">
-        <v>242.83</v>
+        <v>217</v>
       </c>
       <c r="BZ37" t="s">
         <v>126</v>
       </c>
       <c r="CA37">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB37">
-        <v>40.47166666666666</v>
+        <v>43.4</v>
       </c>
       <c r="CC37">
         <v>35</v>
@@ -9846,22 +9846,22 @@
         <v>7</v>
       </c>
       <c r="H38">
-        <v>6.25</v>
+        <v>2.5</v>
       </c>
       <c r="I38">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J38">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M38">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -9900,22 +9900,22 @@
         <v>7</v>
       </c>
       <c r="Z38">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA38">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB38">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC38">
         <v>0</v>
       </c>
       <c r="AD38">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE38">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -9957,19 +9957,19 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT38">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU38">
         <v>0</v>
       </c>
       <c r="AV38">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW38">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX38">
         <v>0</v>
@@ -10002,7 +10002,7 @@
         <v>0</v>
       </c>
       <c r="BH38">
-        <v>31.25</v>
+        <v>12.5</v>
       </c>
       <c r="BI38">
         <v>0</v>
@@ -10020,10 +10020,10 @@
         <v>100</v>
       </c>
       <c r="BN38">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO38">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP38">
         <v>100</v>
@@ -10038,7 +10038,7 @@
         <v>125</v>
       </c>
       <c r="BT38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BU38" t="s">
         <v>125</v>
@@ -10053,16 +10053,16 @@
         <v>125</v>
       </c>
       <c r="BY38">
-        <v>36.25</v>
+        <v>17.5</v>
       </c>
       <c r="BZ38" t="s">
         <v>125</v>
       </c>
       <c r="CA38">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB38">
-        <v>6.041666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="CC38">
         <v>40</v>
@@ -10091,22 +10091,22 @@
         <v>7</v>
       </c>
       <c r="H39">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I39">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J39">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K39">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M39">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N39">
         <v>24.5</v>
@@ -10145,22 +10145,22 @@
         <v>7</v>
       </c>
       <c r="Z39">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="AA39">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB39">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC39">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD39">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE39">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF39">
         <v>25</v>
@@ -10199,22 +10199,22 @@
         <v>15</v>
       </c>
       <c r="AR39">
-        <v>41.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="AS39">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT39">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU39">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AV39">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW39">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX39">
         <v>49</v>
@@ -10247,10 +10247,10 @@
         <v>75</v>
       </c>
       <c r="BH39">
-        <v>74.17</v>
+        <v>38</v>
       </c>
       <c r="BI39">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="BJ39">
         <v>98.5</v>
@@ -10265,10 +10265,10 @@
         <v>100</v>
       </c>
       <c r="BN39">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO39">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP39">
         <v>100</v>
@@ -10298,16 +10298,16 @@
         <v>126</v>
       </c>
       <c r="BY39">
-        <v>486.67</v>
+        <v>407.5</v>
       </c>
       <c r="BZ39" t="s">
         <v>126</v>
       </c>
       <c r="CA39">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB39">
-        <v>81.11166666666666</v>
+        <v>81.5</v>
       </c>
       <c r="CC39">
         <v>17</v>
@@ -10336,22 +10336,22 @@
         <v>7</v>
       </c>
       <c r="H40">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J40">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M40">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N40">
         <v>19</v>
@@ -10390,22 +10390,22 @@
         <v>7</v>
       </c>
       <c r="Z40">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AA40">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB40">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC40">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AD40">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE40">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF40">
         <v>14</v>
@@ -10444,22 +10444,22 @@
         <v>15</v>
       </c>
       <c r="AR40">
-        <v>46.66666666666666</v>
+        <v>28</v>
       </c>
       <c r="AS40">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT40">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU40">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AV40">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW40">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX40">
         <v>15</v>
@@ -10492,10 +10492,10 @@
         <v>71</v>
       </c>
       <c r="BH40">
-        <v>66.67</v>
+        <v>36</v>
       </c>
       <c r="BI40">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="BJ40">
         <v>48</v>
@@ -10510,10 +10510,10 @@
         <v>100</v>
       </c>
       <c r="BN40">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO40">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP40">
         <v>100</v>
@@ -10543,16 +10543,16 @@
         <v>126</v>
       </c>
       <c r="BY40">
-        <v>303.67</v>
+        <v>259</v>
       </c>
       <c r="BZ40" t="s">
         <v>126</v>
       </c>
       <c r="CA40">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB40">
-        <v>50.61166666666666</v>
+        <v>51.8</v>
       </c>
       <c r="CC40">
         <v>30</v>
@@ -10581,22 +10581,22 @@
         <v>7</v>
       </c>
       <c r="H41">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="I41">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J41">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K41">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L41">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M41">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N41">
         <v>18.5</v>
@@ -10635,22 +10635,22 @@
         <v>7</v>
       </c>
       <c r="Z41">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA41">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB41">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC41">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AD41">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE41">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF41">
         <v>23</v>
@@ -10689,22 +10689,22 @@
         <v>15</v>
       </c>
       <c r="AR41">
-        <v>41.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="AS41">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT41">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU41">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AV41">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW41">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX41">
         <v>41.5</v>
@@ -10737,10 +10737,10 @@
         <v>25</v>
       </c>
       <c r="BH41">
-        <v>84.17</v>
+        <v>42</v>
       </c>
       <c r="BI41">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BJ41">
         <v>83</v>
@@ -10755,10 +10755,10 @@
         <v>100</v>
       </c>
       <c r="BN41">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO41">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP41">
         <v>100</v>
@@ -10788,16 +10788,16 @@
         <v>126</v>
       </c>
       <c r="BY41">
-        <v>441.17</v>
+        <v>349</v>
       </c>
       <c r="BZ41" t="s">
         <v>126</v>
       </c>
       <c r="CA41">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB41">
-        <v>73.52833333333334</v>
+        <v>69.8</v>
       </c>
       <c r="CC41">
         <v>22</v>
@@ -10829,19 +10829,19 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J42">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M42">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -10883,19 +10883,19 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB42">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC42">
         <v>0</v>
       </c>
       <c r="AD42">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE42">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -10937,19 +10937,19 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT42">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU42">
         <v>0</v>
       </c>
       <c r="AV42">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW42">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX42">
         <v>0</v>
@@ -11000,10 +11000,10 @@
         <v>100</v>
       </c>
       <c r="BN42">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO42">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP42">
         <v>100</v>
@@ -11039,10 +11039,10 @@
         <v>125</v>
       </c>
       <c r="CA42">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB42">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="CC42">
         <v>39</v>
@@ -11071,22 +11071,22 @@
         <v>7</v>
       </c>
       <c r="H43">
-        <v>6.25</v>
+        <v>2.5</v>
       </c>
       <c r="I43">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J43">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="K43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M43">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N43">
         <v>11.5</v>
@@ -11125,22 +11125,22 @@
         <v>7</v>
       </c>
       <c r="Z43">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AA43">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB43">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AC43">
-        <v>22.5</v>
+        <v>9</v>
       </c>
       <c r="AD43">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AE43">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="AF43">
         <v>24.5</v>
@@ -11179,22 +11179,22 @@
         <v>15</v>
       </c>
       <c r="AR43">
-        <v>41.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="AS43">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AT43">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU43">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AV43">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AW43">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX43">
         <v>47.5</v>
@@ -11227,10 +11227,10 @@
         <v>81</v>
       </c>
       <c r="BH43">
-        <v>70.42</v>
+        <v>36.5</v>
       </c>
       <c r="BI43">
-        <v>67.5</v>
+        <v>35</v>
       </c>
       <c r="BJ43">
         <v>83.5</v>
@@ -11245,10 +11245,10 @@
         <v>100</v>
       </c>
       <c r="BN43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BO43">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP43">
         <v>100</v>
@@ -11278,16 +11278,16 @@
         <v>126</v>
       </c>
       <c r="BY43">
-        <v>457.92</v>
+        <v>391.5</v>
       </c>
       <c r="BZ43" t="s">
         <v>126</v>
       </c>
       <c r="CA43">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="CB43">
-        <v>76.31999999999999</v>
+        <v>78.3</v>
       </c>
       <c r="CC43">
         <v>20</v>
